--- a/rishabh_timesheet.xlsx
+++ b/rishabh_timesheet.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55683\OneDrive - ICF\Desktop\timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BB086A-C9B4-4E77-B15B-582A7604103C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC84C30-6909-477F-9349-B8AE4E6DD1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{91D1710D-DA54-4467-A82A-013A3D0A24E4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{91D1710D-DA54-4467-A82A-013A3D0A24E4}"/>
   </bookViews>
   <sheets>
     <sheet name="CODE" sheetId="2" r:id="rId1"/>
     <sheet name="January" sheetId="1" r:id="rId2"/>
     <sheet name="February" sheetId="3" r:id="rId3"/>
+    <sheet name="March" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="84">
   <si>
     <t>CODE</t>
   </si>
@@ -131,9 +132,6 @@
     <t>Sick Leave</t>
   </si>
   <si>
-    <t>Half Day Leave</t>
-  </si>
-  <si>
     <t>NAME</t>
   </si>
   <si>
@@ -261,6 +259,131 @@
   <si>
     <t>Learning Bash Shell Scripting: Crash Course For Beginners
 Learn how to write command in command prompt</t>
+  </si>
+  <si>
+    <t>Write shell script for copy file to another directory
+Write shell script for copy whole directory to another directory</t>
+  </si>
+  <si>
+    <t>Write shell script for making directory
+Write shell script for deleting the directory
+Write shell script for printing all files included with directory</t>
+  </si>
+  <si>
+    <t>Write shell script and perform all arithmetic operations and know-how to declare a variable, initialize variable, and how to use a variable in the echo statement</t>
+  </si>
+  <si>
+    <t>Write shell script and perform all relational operations
+write a shell script and perform all logical operations</t>
+  </si>
+  <si>
+    <t>Write shell script and perform if-else statement 
+write a shell script and perform the if-else ladder and if-else-if and nested if-else statement.</t>
+  </si>
+  <si>
+    <t>write a shell script and perform for loop operation
+write a shell script and perform while loop operation
+write a shell script and perform do while operation
+and complete all loops.</t>
+  </si>
+  <si>
+    <t>Sick Leave ( 015003 )</t>
+  </si>
+  <si>
+    <t>write a shell script and perform file test operator
+write a shell script and perform all file test operators with having different parameters.</t>
+  </si>
+  <si>
+    <t>Write a shell script and know how to use an array
+write the script and perform all array operations like how to declare an array with different types and how to initialize array how to assign value in an array how to print array how to delete array how to access an array with the help of indexes
+perform all search operations and how to replace array elements with hands-on exercises.</t>
+  </si>
+  <si>
+    <t>CRISIL PROJECT CODE</t>
+  </si>
+  <si>
+    <t>163687.0.002.98</t>
+  </si>
+  <si>
+    <t>CRISIL CODE
+163687.0.002.98</t>
+  </si>
+  <si>
+    <t>AEM instance setup and java 8 setup</t>
+  </si>
+  <si>
+    <t>CRISIL code base setup and functional KT session</t>
+  </si>
+  <si>
+    <t>Holiday (015001)</t>
+  </si>
+  <si>
+    <t>Succesfully checkout git access and able to get code from the git</t>
+  </si>
+  <si>
+    <t>Exploring code base of crisil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successfully explore the code base and setup SOLR locally 
+Successfully integrate spring boot to SOLR
+</t>
+  </si>
+  <si>
+    <t>Overview of Indices Automation and get to know the requirement as per the functional KT session</t>
+  </si>
+  <si>
+    <t>Successfully completed Query with SOLR GUI.
+Perform DDL and DML operations in the SOLR environment</t>
+  </si>
+  <si>
+    <t>Technical KT on INDICES AUTOMATION and going through on exploring code base of indices in the local codebase.</t>
+  </si>
+  <si>
+    <t>Working on PPT presentation of reverse KT and completing it as well as keep on exploring code base of INDICES Automation.</t>
+  </si>
+  <si>
+    <t>Half Day
+Sick Leave (015003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working on Services Implementation part of CRISIL Indices Automation </t>
+  </si>
+  <si>
+    <t>Work on Access Token API
+Work on OSGi Configuration of API</t>
+  </si>
+  <si>
+    <t>Overview of Indices Automation and get to know the requirement as per the functional KT session
+Give the Demo presentation of Indices
+Working on Json format issue of CRISIL</t>
+  </si>
+  <si>
+    <t>Overview of Indices Automation and get to know the requirement and walk through the data fetch API document for validation of activation token.
+Working on response body creation of CRISIL Indices Automation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overview of Indices Automation and get to know the requirement and walk through the data fetch API document for activation token.
+Working on POJO Classes of CRISIL Indices Automation </t>
+  </si>
+  <si>
+    <t>Overview of Indices Automation and get to know the requirement and walk through the data fetch API document.
+Working on Model Classes of CRISIL Indices Automation</t>
+  </si>
+  <si>
+    <t>Create service class for Access Token API
+Write all business logic for the service class that is required for Access Token API</t>
+  </si>
+  <si>
+    <t>Sick Leave (015003)</t>
+  </si>
+  <si>
+    <t>Demo session for the ACCESS TOKEN API
+complete REFRESH ACCESS TOKEN API
+give the presentation for this API implementation.</t>
+  </si>
+  <si>
+    <t>Working on Indices Automation Task 
+working on services of indices automation task</t>
   </si>
 </sst>
 </file>
@@ -384,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -446,7 +569,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -459,6 +581,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -469,6 +603,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -788,21 +937,21 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" style="27" customWidth="1"/>
     <col min="2" max="2" width="31.44140625" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -847,9 +996,11 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -862,7 +1013,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -889,10 +1040,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -905,10 +1056,10 @@
       <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="29">
         <v>44564</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="9" t="s">
@@ -925,8 +1076,8 @@
       <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="22" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="21" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -943,10 +1094,10 @@
       <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="29">
         <v>44565</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="7">
@@ -963,8 +1114,8 @@
       <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="22" t="s">
+      <c r="D5" s="30"/>
+      <c r="E5" s="21" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="7">
@@ -981,13 +1132,13 @@
       <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="29">
         <v>44566</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="23">
         <v>15003</v>
       </c>
     </row>
@@ -1001,10 +1152,8 @@
       <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="19"/>
     </row>
     <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -1017,11 +1166,11 @@
       <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="29">
         <v>44567</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
     </row>
     <row r="9" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
@@ -1033,9 +1182,9 @@
       <c r="C9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
     </row>
     <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -1047,11 +1196,11 @@
       <c r="C10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="29">
         <v>44568</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
     </row>
     <row r="11" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
@@ -1063,9 +1212,9 @@
       <c r="C11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
     </row>
     <row r="12" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
@@ -1075,13 +1224,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="18">
         <v>44571</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
     </row>
     <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
@@ -1091,13 +1240,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="26">
+        <v>25</v>
+      </c>
+      <c r="D13" s="29">
         <v>44572</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
     </row>
     <row r="14" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
@@ -1109,9 +1258,9 @@
       <c r="C14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
     </row>
     <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
@@ -1121,13 +1270,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="26">
+        <v>26</v>
+      </c>
+      <c r="D15" s="29">
         <v>44573</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
     </row>
     <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
@@ -1137,11 +1286,11 @@
         <v>6</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+        <v>27</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
@@ -1151,13 +1300,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="18">
         <v>44574</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
     </row>
     <row r="18" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
@@ -1167,13 +1316,13 @@
         <v>2</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="26">
+        <v>29</v>
+      </c>
+      <c r="D18" s="29">
         <v>44578</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
     </row>
     <row r="19" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
@@ -1183,11 +1332,11 @@
         <v>6</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
+        <v>30</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
     </row>
     <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
@@ -1197,13 +1346,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="18">
         <v>44579</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
@@ -1213,9 +1362,9 @@
         <v>5</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="26">
+        <v>35</v>
+      </c>
+      <c r="D21" s="29">
         <v>44580</v>
       </c>
     </row>
@@ -1227,9 +1376,9 @@
         <v>3</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="26"/>
+        <v>33</v>
+      </c>
+      <c r="D22" s="29"/>
     </row>
     <row r="23" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
@@ -1239,9 +1388,9 @@
         <v>5</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="26">
+        <v>36</v>
+      </c>
+      <c r="D23" s="29">
         <v>44581</v>
       </c>
     </row>
@@ -1253,9 +1402,9 @@
         <v>3</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="26"/>
+        <v>37</v>
+      </c>
+      <c r="D24" s="29"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
@@ -1265,7 +1414,7 @@
         <v>8</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" s="18">
         <v>44582</v>
@@ -1279,7 +1428,7 @@
         <v>8</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26" s="18">
         <v>44585</v>
@@ -1293,9 +1442,9 @@
         <v>6</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="26">
+        <v>39</v>
+      </c>
+      <c r="D27" s="29">
         <v>44586</v>
       </c>
     </row>
@@ -1307,9 +1456,9 @@
         <v>2</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="26"/>
+        <v>40</v>
+      </c>
+      <c r="D28" s="29"/>
     </row>
     <row r="29" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
@@ -1319,9 +1468,9 @@
         <v>6</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="26">
+        <v>42</v>
+      </c>
+      <c r="D29" s="29">
         <v>44588</v>
       </c>
     </row>
@@ -1333,9 +1482,9 @@
         <v>2</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="26"/>
+        <v>40</v>
+      </c>
+      <c r="D30" s="29"/>
     </row>
     <row r="31" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
@@ -1345,9 +1494,9 @@
         <v>6</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="26">
+        <v>43</v>
+      </c>
+      <c r="D31" s="29">
         <v>44589</v>
       </c>
     </row>
@@ -1359,9 +1508,9 @@
         <v>2</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="26"/>
+        <v>41</v>
+      </c>
+      <c r="D32" s="29"/>
     </row>
     <row r="33" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
@@ -1371,9 +1520,9 @@
         <v>2</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="26">
+        <v>45</v>
+      </c>
+      <c r="D33" s="29">
         <v>44592</v>
       </c>
     </row>
@@ -1385,9 +1534,9 @@
         <v>6</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="26"/>
+        <v>44</v>
+      </c>
+      <c r="D34" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1414,10 +1563,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD25E0C-56B4-49C9-81FC-B33B23DE8FF6}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1431,10 +1580,10 @@
     <row r="1" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>4</v>
@@ -1450,7 +1599,7 @@
       <c r="C2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="32">
         <v>44593</v>
       </c>
     </row>
@@ -1459,12 +1608,12 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="29"/>
+        <v>48</v>
+      </c>
+      <c r="D3" s="32"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1476,7 +1625,7 @@
       <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="32">
         <v>44594</v>
       </c>
     </row>
@@ -1485,12 +1634,12 @@
         <v>2</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="29"/>
+        <v>49</v>
+      </c>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -1502,7 +1651,7 @@
       <c r="C6" s="4">
         <v>0</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="32">
         <v>44595</v>
       </c>
     </row>
@@ -1511,12 +1660,12 @@
         <v>2</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="29"/>
+        <v>49</v>
+      </c>
+      <c r="D7" s="32"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -1528,7 +1677,7 @@
       <c r="C8" s="4">
         <v>0</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="32">
         <v>44596</v>
       </c>
     </row>
@@ -1537,44 +1686,912 @@
         <v>2</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="29"/>
+        <v>49</v>
+      </c>
+      <c r="D9" s="32"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10" s="4">
+        <v>4</v>
+      </c>
+      <c r="D10" s="32">
+        <v>44599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="32"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="15">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4">
+        <v>4</v>
+      </c>
+      <c r="D12" s="32">
+        <v>44600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="32"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="15">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4">
+        <v>4</v>
+      </c>
+      <c r="D14" s="32">
+        <v>44601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="32"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="15">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4">
+        <v>4</v>
+      </c>
+      <c r="D16" s="32">
+        <v>44602</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="32"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="15">
+        <v>4</v>
+      </c>
+      <c r="C18" s="4">
+        <v>4</v>
+      </c>
+      <c r="D18" s="32">
+        <v>44603</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="32"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="15">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4">
+        <v>4</v>
+      </c>
+      <c r="D20" s="32">
+        <v>44606</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="32"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="15">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4">
+        <v>4</v>
+      </c>
+      <c r="D22" s="32">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="32"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="33">
+        <v>8</v>
+      </c>
+      <c r="C24" s="34"/>
+      <c r="D24" s="32">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="35"/>
+      <c r="D25" s="32"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="15">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4">
+        <v>4</v>
+      </c>
+      <c r="D26" s="32">
+        <v>44609</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="32"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="15">
+        <v>4</v>
+      </c>
+      <c r="C28" s="4">
+        <v>4</v>
+      </c>
+      <c r="D28" s="32">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="32"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="15">
+        <v>4</v>
+      </c>
+      <c r="C30" s="4">
+        <v>4</v>
+      </c>
+      <c r="D30" s="32">
+        <v>44613</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="32"/>
+    </row>
+    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+      <c r="B32" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="15">
+        <v>8</v>
+      </c>
+      <c r="C33" s="4">
         <v>0</v>
       </c>
-      <c r="D10" s="29">
-        <v>44599</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="29"/>
+      <c r="D33" s="32">
+        <v>44614</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="17"/>
+      <c r="D34" s="32"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="15">
+        <v>8</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0</v>
+      </c>
+      <c r="D35" s="32">
+        <v>44615</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="17"/>
+      <c r="D36" s="32"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="15">
+        <v>8</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0</v>
+      </c>
+      <c r="D37" s="32">
+        <v>44616</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="17"/>
+      <c r="D38" s="32"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="15">
+        <v>8</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0</v>
+      </c>
+      <c r="D39" s="32">
+        <v>44617</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="17"/>
+      <c r="D40" s="32"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="15">
+        <v>8</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0</v>
+      </c>
+      <c r="D41" s="32">
+        <v>44618</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="17"/>
+      <c r="D42" s="32"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="15">
+        <v>8</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0</v>
+      </c>
+      <c r="D43" s="32">
+        <v>44619</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="17"/>
+      <c r="D44" s="32"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="15">
+        <v>8</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0</v>
+      </c>
+      <c r="D45" s="32">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="17"/>
+      <c r="D46" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="24">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38664062-6459-4C38-9B3B-3A164047A9A0}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="43.109375" customWidth="1"/>
+    <col min="3" max="3" width="43.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36">
+        <v>8</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="32">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="32"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="32">
+        <v>44622</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="32"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="15">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="32">
+        <v>44623</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="32"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="15">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="32">
+        <v>44624</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="32"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="15">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="32">
+        <v>44627</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="32"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="15">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="32">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="32"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="15">
+        <v>8</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="32">
+        <v>44629</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="32"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="15">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="32">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="32"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="15">
+        <v>4</v>
+      </c>
+      <c r="C18" s="4">
+        <v>4</v>
+      </c>
+      <c r="D18" s="32">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="32"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="15">
+        <v>8</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="32">
+        <v>44634</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="32"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="15">
+        <v>8</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="32">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="32"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="15">
+        <v>8</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="32">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="32"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="15">
+        <v>8</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
+      <c r="D26" s="32">
+        <v>44637</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="32"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="33">
+        <v>8</v>
+      </c>
+      <c r="C28" s="34"/>
+      <c r="D28" s="32">
+        <v>44638</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="34"/>
+      <c r="D29" s="32"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="15">
+        <v>8</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
+      <c r="D30" s="32">
+        <v>44641</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/rishabh_timesheet.xlsx
+++ b/rishabh_timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55683\OneDrive - ICF\Desktop\timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC84C30-6909-477F-9349-B8AE4E6DD1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D1DFD9-5FE4-4EFE-A786-A43C77A020D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{91D1710D-DA54-4467-A82A-013A3D0A24E4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
   <si>
     <t>CODE</t>
   </si>
@@ -384,6 +384,37 @@
   <si>
     <t>Working on Indices Automation Task 
 working on services of indices automation task</t>
+  </si>
+  <si>
+    <t>CRISIL NEW PROJECT CODE</t>
+  </si>
+  <si>
+    <t>163687.0.002.01</t>
+  </si>
+  <si>
+    <t>PTO (015002)</t>
+  </si>
+  <si>
+    <t>Learning SOLR concept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working on SOLR Services Implementation part of CRISIL Indices Automation </t>
+  </si>
+  <si>
+    <t>Working on SOLR Services Implementation part of CRISIL Indices Automation as well as OSGi configuration of API.</t>
+  </si>
+  <si>
+    <t>Working on SOLR Services CRUD operation
+written method for adding data into the SOLR
+written method for getting data into the SOLR
+written method for deleting data using uniqueKey to the SOLR.</t>
+  </si>
+  <si>
+    <t>Working on SOLR Services CRUD operation
+written method for adding data into the SOLR
+written method for getting data into the SOLR
+written method for deleting data using uniqueKey to the SOLR.
+Adding some required configuration of SOLR.</t>
   </si>
 </sst>
 </file>
@@ -507,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -593,6 +624,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -602,17 +636,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -934,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8568C51-A3B1-4ED9-851C-00FAAEFAC243}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1002,6 +1036,14 @@
         <v>61</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1012,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C3AD78-21C2-40ED-A814-165D4FC13558}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1056,7 +1098,7 @@
       <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="30">
         <v>44564</v>
       </c>
       <c r="E2" s="21" t="s">
@@ -1076,7 +1118,7 @@
       <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="30"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="21" t="s">
         <v>6</v>
       </c>
@@ -1094,7 +1136,7 @@
       <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="30">
         <v>44565</v>
       </c>
       <c r="E4" s="21" t="s">
@@ -1114,7 +1156,7 @@
       <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="21" t="s">
         <v>20</v>
       </c>
@@ -1132,7 +1174,7 @@
       <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="30">
         <v>44566</v>
       </c>
       <c r="E6" s="22" t="s">
@@ -1152,7 +1194,7 @@
       <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="31"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="4"/>
       <c r="F7" s="19"/>
     </row>
@@ -1166,7 +1208,7 @@
       <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="30">
         <v>44567</v>
       </c>
       <c r="E8" s="24"/>
@@ -1182,7 +1224,7 @@
       <c r="C9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="30"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
     </row>
@@ -1196,7 +1238,7 @@
       <c r="C10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="30">
         <v>44568</v>
       </c>
       <c r="E10" s="24"/>
@@ -1212,7 +1254,7 @@
       <c r="C11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="30"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
     </row>
@@ -1242,7 +1284,7 @@
       <c r="C13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="30">
         <v>44572</v>
       </c>
       <c r="E13" s="24"/>
@@ -1258,7 +1300,7 @@
       <c r="C14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="29"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
     </row>
@@ -1272,7 +1314,7 @@
       <c r="C15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="30">
         <v>44573</v>
       </c>
       <c r="E15" s="24"/>
@@ -1288,7 +1330,7 @@
       <c r="C16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="29"/>
+      <c r="D16" s="30"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
     </row>
@@ -1318,7 +1360,7 @@
       <c r="C18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="30">
         <v>44578</v>
       </c>
       <c r="E18" s="24"/>
@@ -1334,7 +1376,7 @@
       <c r="C19" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="29"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
     </row>
@@ -1364,7 +1406,7 @@
       <c r="C21" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="30">
         <v>44580</v>
       </c>
     </row>
@@ -1378,7 +1420,7 @@
       <c r="C22" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="29"/>
+      <c r="D22" s="30"/>
     </row>
     <row r="23" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
@@ -1390,7 +1432,7 @@
       <c r="C23" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="30">
         <v>44581</v>
       </c>
     </row>
@@ -1404,7 +1446,7 @@
       <c r="C24" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="29"/>
+      <c r="D24" s="30"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
@@ -1444,7 +1486,7 @@
       <c r="C27" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D27" s="30">
         <v>44586</v>
       </c>
     </row>
@@ -1458,7 +1500,7 @@
       <c r="C28" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="29"/>
+      <c r="D28" s="30"/>
     </row>
     <row r="29" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
@@ -1470,7 +1512,7 @@
       <c r="C29" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="29">
+      <c r="D29" s="30">
         <v>44588</v>
       </c>
     </row>
@@ -1484,7 +1526,7 @@
       <c r="C30" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="29"/>
+      <c r="D30" s="30"/>
     </row>
     <row r="31" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
@@ -1496,7 +1538,7 @@
       <c r="C31" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="29">
+      <c r="D31" s="30">
         <v>44589</v>
       </c>
     </row>
@@ -1510,7 +1552,7 @@
       <c r="C32" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="29"/>
+      <c r="D32" s="30"/>
     </row>
     <row r="33" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
@@ -1522,7 +1564,7 @@
       <c r="C33" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="29">
+      <c r="D33" s="30">
         <v>44592</v>
       </c>
     </row>
@@ -1536,16 +1578,10 @@
       <c r="C34" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="29"/>
+      <c r="D34" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="D13:D14"/>
@@ -1554,6 +1590,12 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1565,8 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD25E0C-56B4-49C9-81FC-B33B23DE8FF6}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1599,7 +1641,7 @@
       <c r="C2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="36">
         <v>44593</v>
       </c>
     </row>
@@ -1613,7 +1655,7 @@
       <c r="C3" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="32"/>
+      <c r="D3" s="36"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1625,7 +1667,7 @@
       <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="36">
         <v>44594</v>
       </c>
     </row>
@@ -1639,7 +1681,7 @@
       <c r="C5" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="36"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -1651,7 +1693,7 @@
       <c r="C6" s="4">
         <v>0</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="36">
         <v>44595</v>
       </c>
     </row>
@@ -1665,7 +1707,7 @@
       <c r="C7" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="36"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -1677,7 +1719,7 @@
       <c r="C8" s="4">
         <v>0</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="36">
         <v>44596</v>
       </c>
     </row>
@@ -1691,7 +1733,7 @@
       <c r="C9" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="36"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
@@ -1703,7 +1745,7 @@
       <c r="C10" s="4">
         <v>4</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="36">
         <v>44599</v>
       </c>
     </row>
@@ -1717,7 +1759,7 @@
       <c r="C11" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="32"/>
+      <c r="D11" s="36"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -1729,7 +1771,7 @@
       <c r="C12" s="4">
         <v>4</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="36">
         <v>44600</v>
       </c>
     </row>
@@ -1743,7 +1785,7 @@
       <c r="C13" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="32"/>
+      <c r="D13" s="36"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -1755,7 +1797,7 @@
       <c r="C14" s="4">
         <v>4</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="36">
         <v>44601</v>
       </c>
     </row>
@@ -1769,7 +1811,7 @@
       <c r="C15" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="32"/>
+      <c r="D15" s="36"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
@@ -1781,7 +1823,7 @@
       <c r="C16" s="4">
         <v>4</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="36">
         <v>44602</v>
       </c>
     </row>
@@ -1795,7 +1837,7 @@
       <c r="C17" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="32"/>
+      <c r="D17" s="36"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
@@ -1807,7 +1849,7 @@
       <c r="C18" s="4">
         <v>4</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="36">
         <v>44603</v>
       </c>
     </row>
@@ -1821,7 +1863,7 @@
       <c r="C19" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="32"/>
+      <c r="D19" s="36"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
@@ -1833,7 +1875,7 @@
       <c r="C20" s="4">
         <v>4</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="36">
         <v>44606</v>
       </c>
     </row>
@@ -1847,7 +1889,7 @@
       <c r="C21" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="32"/>
+      <c r="D21" s="36"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
@@ -1859,7 +1901,7 @@
       <c r="C22" s="4">
         <v>4</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="36">
         <v>44607</v>
       </c>
     </row>
@@ -1873,7 +1915,7 @@
       <c r="C23" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="32"/>
+      <c r="D23" s="36"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
@@ -1883,7 +1925,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="34"/>
-      <c r="D24" s="32">
+      <c r="D24" s="36">
         <v>44608</v>
       </c>
     </row>
@@ -1895,7 +1937,7 @@
         <v>57</v>
       </c>
       <c r="C25" s="35"/>
-      <c r="D25" s="32"/>
+      <c r="D25" s="36"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
@@ -1907,7 +1949,7 @@
       <c r="C26" s="4">
         <v>4</v>
       </c>
-      <c r="D26" s="32">
+      <c r="D26" s="36">
         <v>44609</v>
       </c>
     </row>
@@ -1921,7 +1963,7 @@
       <c r="C27" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="32"/>
+      <c r="D27" s="36"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
@@ -1933,7 +1975,7 @@
       <c r="C28" s="4">
         <v>4</v>
       </c>
-      <c r="D28" s="32">
+      <c r="D28" s="36">
         <v>44610</v>
       </c>
     </row>
@@ -1947,7 +1989,7 @@
       <c r="C29" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="32"/>
+      <c r="D29" s="36"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
@@ -1959,7 +2001,7 @@
       <c r="C30" s="4">
         <v>4</v>
       </c>
-      <c r="D30" s="32">
+      <c r="D30" s="36">
         <v>44613</v>
       </c>
     </row>
@@ -1973,7 +2015,7 @@
       <c r="C31" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="32"/>
+      <c r="D31" s="36"/>
     </row>
     <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
@@ -1997,7 +2039,7 @@
       <c r="C33" s="4">
         <v>0</v>
       </c>
-      <c r="D33" s="32">
+      <c r="D33" s="36">
         <v>44614</v>
       </c>
     </row>
@@ -2009,7 +2051,7 @@
         <v>63</v>
       </c>
       <c r="C34" s="17"/>
-      <c r="D34" s="32"/>
+      <c r="D34" s="36"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
@@ -2021,7 +2063,7 @@
       <c r="C35" s="4">
         <v>0</v>
       </c>
-      <c r="D35" s="32">
+      <c r="D35" s="36">
         <v>44615</v>
       </c>
     </row>
@@ -2033,7 +2075,7 @@
         <v>64</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="32"/>
+      <c r="D36" s="36"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
@@ -2045,7 +2087,7 @@
       <c r="C37" s="4">
         <v>0</v>
       </c>
-      <c r="D37" s="32">
+      <c r="D37" s="36">
         <v>44616</v>
       </c>
     </row>
@@ -2057,7 +2099,7 @@
         <v>66</v>
       </c>
       <c r="C38" s="17"/>
-      <c r="D38" s="32"/>
+      <c r="D38" s="36"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
@@ -2069,7 +2111,7 @@
       <c r="C39" s="4">
         <v>0</v>
       </c>
-      <c r="D39" s="32">
+      <c r="D39" s="36">
         <v>44617</v>
       </c>
     </row>
@@ -2081,7 +2123,7 @@
         <v>67</v>
       </c>
       <c r="C40" s="17"/>
-      <c r="D40" s="32"/>
+      <c r="D40" s="36"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
@@ -2093,7 +2135,7 @@
       <c r="C41" s="4">
         <v>0</v>
       </c>
-      <c r="D41" s="32">
+      <c r="D41" s="36">
         <v>44618</v>
       </c>
     </row>
@@ -2105,7 +2147,7 @@
         <v>67</v>
       </c>
       <c r="C42" s="17"/>
-      <c r="D42" s="32"/>
+      <c r="D42" s="36"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
@@ -2117,7 +2159,7 @@
       <c r="C43" s="4">
         <v>0</v>
       </c>
-      <c r="D43" s="32">
+      <c r="D43" s="36">
         <v>44619</v>
       </c>
     </row>
@@ -2129,7 +2171,7 @@
         <v>68</v>
       </c>
       <c r="C44" s="17"/>
-      <c r="D44" s="32"/>
+      <c r="D44" s="36"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
@@ -2141,7 +2183,7 @@
       <c r="C45" s="4">
         <v>0</v>
       </c>
-      <c r="D45" s="32">
+      <c r="D45" s="36">
         <v>44620</v>
       </c>
     </row>
@@ -2153,22 +2195,10 @@
         <v>69</v>
       </c>
       <c r="C46" s="17"/>
-      <c r="D46" s="32"/>
+      <c r="D46" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
     <mergeCell ref="D39:D40"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="D43:D44"/>
@@ -2181,6 +2211,18 @@
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2189,10 +2231,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38664062-6459-4C38-9B3B-3A164047A9A0}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2219,11 +2261,11 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36">
-        <v>8</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="32">
+      <c r="B2" s="37">
+        <v>8</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="36">
         <v>44621</v>
       </c>
     </row>
@@ -2235,7 +2277,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="35"/>
-      <c r="D3" s="32"/>
+      <c r="D3" s="36"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -2247,7 +2289,7 @@
       <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="36">
         <v>44622</v>
       </c>
     </row>
@@ -2259,7 +2301,7 @@
         <v>70</v>
       </c>
       <c r="C5" s="17"/>
-      <c r="D5" s="32"/>
+      <c r="D5" s="36"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -2271,7 +2313,7 @@
       <c r="C6" s="4">
         <v>0</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="36">
         <v>44623</v>
       </c>
     </row>
@@ -2283,7 +2325,7 @@
         <v>71</v>
       </c>
       <c r="C7" s="17"/>
-      <c r="D7" s="32"/>
+      <c r="D7" s="36"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -2295,7 +2337,7 @@
       <c r="C8" s="4">
         <v>0</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="36">
         <v>44624</v>
       </c>
     </row>
@@ -2307,7 +2349,7 @@
         <v>72</v>
       </c>
       <c r="C9" s="17"/>
-      <c r="D9" s="32"/>
+      <c r="D9" s="36"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
@@ -2319,7 +2361,7 @@
       <c r="C10" s="4">
         <v>0</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="36">
         <v>44627</v>
       </c>
     </row>
@@ -2331,7 +2373,7 @@
         <v>76</v>
       </c>
       <c r="C11" s="17"/>
-      <c r="D11" s="32"/>
+      <c r="D11" s="36"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -2343,7 +2385,7 @@
       <c r="C12" s="4">
         <v>0</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="36">
         <v>44628</v>
       </c>
     </row>
@@ -2355,7 +2397,7 @@
         <v>79</v>
       </c>
       <c r="C13" s="17"/>
-      <c r="D13" s="32"/>
+      <c r="D13" s="36"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -2367,7 +2409,7 @@
       <c r="C14" s="4">
         <v>0</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="36">
         <v>44629</v>
       </c>
     </row>
@@ -2379,7 +2421,7 @@
         <v>78</v>
       </c>
       <c r="C15" s="17"/>
-      <c r="D15" s="32"/>
+      <c r="D15" s="36"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
@@ -2391,7 +2433,7 @@
       <c r="C16" s="4">
         <v>0</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="36">
         <v>44630</v>
       </c>
     </row>
@@ -2403,7 +2445,7 @@
         <v>77</v>
       </c>
       <c r="C17" s="17"/>
-      <c r="D17" s="32"/>
+      <c r="D17" s="36"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
@@ -2415,7 +2457,7 @@
       <c r="C18" s="4">
         <v>4</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="36">
         <v>44631</v>
       </c>
     </row>
@@ -2429,7 +2471,7 @@
       <c r="C19" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="32"/>
+      <c r="D19" s="36"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
@@ -2441,7 +2483,7 @@
       <c r="C20" s="4">
         <v>0</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="36">
         <v>44634</v>
       </c>
     </row>
@@ -2453,7 +2495,7 @@
         <v>75</v>
       </c>
       <c r="C21" s="17"/>
-      <c r="D21" s="32"/>
+      <c r="D21" s="36"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
@@ -2465,7 +2507,7 @@
       <c r="C22" s="4">
         <v>0</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="36">
         <v>44635</v>
       </c>
     </row>
@@ -2477,7 +2519,7 @@
         <v>80</v>
       </c>
       <c r="C23" s="17"/>
-      <c r="D23" s="32"/>
+      <c r="D23" s="36"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
@@ -2489,7 +2531,7 @@
       <c r="C24" s="4">
         <v>0</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="36">
         <v>44636</v>
       </c>
     </row>
@@ -2501,7 +2543,7 @@
         <v>82</v>
       </c>
       <c r="C25" s="17"/>
-      <c r="D25" s="32"/>
+      <c r="D25" s="36"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
@@ -2513,7 +2555,7 @@
       <c r="C26" s="4">
         <v>0</v>
       </c>
-      <c r="D26" s="32">
+      <c r="D26" s="36">
         <v>44637</v>
       </c>
     </row>
@@ -2525,7 +2567,7 @@
         <v>83</v>
       </c>
       <c r="C27" s="17"/>
-      <c r="D27" s="32"/>
+      <c r="D27" s="36"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
@@ -2535,7 +2577,7 @@
         <v>8</v>
       </c>
       <c r="C28" s="34"/>
-      <c r="D28" s="32">
+      <c r="D28" s="36">
         <v>44638</v>
       </c>
     </row>
@@ -2547,37 +2589,165 @@
         <v>81</v>
       </c>
       <c r="C29" s="34"/>
-      <c r="D29" s="32"/>
+      <c r="D29" s="36"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="15">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C30" s="4">
-        <v>0</v>
-      </c>
-      <c r="D30" s="32">
+        <v>6</v>
+      </c>
+      <c r="D30" s="36">
         <v>44641</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="32"/>
+      <c r="B31" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="36"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="15">
+        <v>2</v>
+      </c>
+      <c r="C32" s="4">
+        <v>6</v>
+      </c>
+      <c r="D32" s="36">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="36"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="15">
+        <v>2</v>
+      </c>
+      <c r="C34" s="4">
+        <v>6</v>
+      </c>
+      <c r="D34" s="36">
+        <v>44643</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="36"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="15">
+        <v>2</v>
+      </c>
+      <c r="C36" s="4">
+        <v>6</v>
+      </c>
+      <c r="D36" s="36">
+        <v>44644</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="36"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="33">
+        <v>8</v>
+      </c>
+      <c r="C38" s="34"/>
+      <c r="D38" s="36">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="34"/>
+      <c r="D39" s="36"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="33">
+        <v>8</v>
+      </c>
+      <c r="C40" s="34"/>
+      <c r="D40" s="36">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="34"/>
+      <c r="D41" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
+  <mergeCells count="28">
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="D12:D13"/>
@@ -2585,13 +2755,20 @@
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="B39:C39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2599,6 +2776,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010071FEBA6E59F1114FA1DBADB5A19192F5" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="68d738ba6abfae8d013aeb1fb6af46ea">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="33e4e33d-ffb4-4a17-9b1b-478bea8d3710" xmlns:ns4="9120eac6-4b18-4abe-a762-bd257214a810" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dae310c37f0a31cfa956236035f6b2a5" ns3:_="" ns4:_="">
     <xsd:import namespace="33e4e33d-ffb4-4a17-9b1b-478bea8d3710"/>
@@ -2807,22 +2999,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD282290-682D-4720-AA66-05DB34A587D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="33e4e33d-ffb4-4a17-9b1b-478bea8d3710"/>
+    <ds:schemaRef ds:uri="9120eac6-4b18-4abe-a762-bd257214a810"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81EA1DDF-0A41-4AEA-8848-5B89771E278B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{248AF9C3-A2BF-4479-B7A8-B2BDE179A582}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2839,29 +3041,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81EA1DDF-0A41-4AEA-8848-5B89771E278B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD282290-682D-4720-AA66-05DB34A587D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="33e4e33d-ffb4-4a17-9b1b-478bea8d3710"/>
-    <ds:schemaRef ds:uri="9120eac6-4b18-4abe-a762-bd257214a810"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/rishabh_timesheet.xlsx
+++ b/rishabh_timesheet.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55683\OneDrive - ICF\Desktop\timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D1DFD9-5FE4-4EFE-A786-A43C77A020D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A7EE5E-CF11-4AF8-8964-35C976966327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{91D1710D-DA54-4467-A82A-013A3D0A24E4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{91D1710D-DA54-4467-A82A-013A3D0A24E4}"/>
   </bookViews>
   <sheets>
     <sheet name="CODE" sheetId="2" r:id="rId1"/>
     <sheet name="January" sheetId="1" r:id="rId2"/>
     <sheet name="February" sheetId="3" r:id="rId3"/>
     <sheet name="March" sheetId="4" r:id="rId4"/>
+    <sheet name="April" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="100">
   <si>
     <t>CODE</t>
   </si>
@@ -398,23 +399,64 @@
     <t>Learning SOLR concept</t>
   </si>
   <si>
-    <t xml:space="preserve">Working on SOLR Services Implementation part of CRISIL Indices Automation </t>
-  </si>
-  <si>
-    <t>Working on SOLR Services Implementation part of CRISIL Indices Automation as well as OSGi configuration of API.</t>
-  </si>
-  <si>
-    <t>Working on SOLR Services CRUD operation
+    <t>Project: Crisil
+Task: CR
+Task Detail: Working on SOLR Services Implementation part of CRISIL Indices Automation.</t>
+  </si>
+  <si>
+    <t>Project: Crisil
+Task: CR
+Task Detail: Working on SOLR Services Implementation part of CRISIL Indices Automation as well as OSGi configuration of API.</t>
+  </si>
+  <si>
+    <t>Project: Crisil
+Task: CR
+Task Detail: Working on SOLR Services CRUD operation
 written method for adding data into the SOLR
 written method for getting data into the SOLR
 written method for deleting data using uniqueKey to the SOLR.</t>
   </si>
   <si>
-    <t>Working on SOLR Services CRUD operation
+    <t>Project: Crisil
+Task: CR
+Task Detail: Working on SOLR Services CRUD operation
 written method for adding data into the SOLR
 written method for getting data into the SOLR
 written method for deleting data using uniqueKey to the SOLR.
 Adding some required configuration of SOLR.</t>
+  </si>
+  <si>
+    <t>Learning how to use run mode</t>
+  </si>
+  <si>
+    <t>Learn how to set configuration locally for solr</t>
+  </si>
+  <si>
+    <t>Project: Crisil
+Task: CR
+Task Detail: Write Crud operation for solr</t>
+  </si>
+  <si>
+    <t>Project: Crisil
+Task: CR 
+Task Detail: writing services for the indices</t>
+  </si>
+  <si>
+    <t>CRISIL CODE
+163687.0.002.01</t>
+  </si>
+  <si>
+    <t>Project: Crisil
+Task: CR 
+Task Detail: testing services for the indices</t>
+  </si>
+  <si>
+    <t>learn different types of run modes and how to use them.</t>
+  </si>
+  <si>
+    <t>Project: Crisil
+Task: CR 
+Task Detail: working on services part for the indices automation task</t>
   </si>
 </sst>
 </file>
@@ -538,7 +580,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -627,6 +669,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -636,6 +681,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -644,9 +692,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1098,7 +1143,7 @@
       <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="31">
         <v>44564</v>
       </c>
       <c r="E2" s="21" t="s">
@@ -1118,7 +1163,7 @@
       <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="31"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="21" t="s">
         <v>6</v>
       </c>
@@ -1136,7 +1181,7 @@
       <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="31">
         <v>44565</v>
       </c>
       <c r="E4" s="21" t="s">
@@ -1156,7 +1201,7 @@
       <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="31"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="21" t="s">
         <v>20</v>
       </c>
@@ -1174,7 +1219,7 @@
       <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="31">
         <v>44566</v>
       </c>
       <c r="E6" s="22" t="s">
@@ -1194,7 +1239,7 @@
       <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="4"/>
       <c r="F7" s="19"/>
     </row>
@@ -1208,7 +1253,7 @@
       <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="31">
         <v>44567</v>
       </c>
       <c r="E8" s="24"/>
@@ -1224,7 +1269,7 @@
       <c r="C9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="31"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
     </row>
@@ -1238,7 +1283,7 @@
       <c r="C10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="31">
         <v>44568</v>
       </c>
       <c r="E10" s="24"/>
@@ -1254,7 +1299,7 @@
       <c r="C11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="31"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
     </row>
@@ -1284,7 +1329,7 @@
       <c r="C13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="31">
         <v>44572</v>
       </c>
       <c r="E13" s="24"/>
@@ -1300,7 +1345,7 @@
       <c r="C14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="30"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
     </row>
@@ -1314,7 +1359,7 @@
       <c r="C15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="31">
         <v>44573</v>
       </c>
       <c r="E15" s="24"/>
@@ -1330,7 +1375,7 @@
       <c r="C16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="30"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
     </row>
@@ -1360,7 +1405,7 @@
       <c r="C18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="31">
         <v>44578</v>
       </c>
       <c r="E18" s="24"/>
@@ -1376,7 +1421,7 @@
       <c r="C19" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="30"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
     </row>
@@ -1406,7 +1451,7 @@
       <c r="C21" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="31">
         <v>44580</v>
       </c>
     </row>
@@ -1420,7 +1465,7 @@
       <c r="C22" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="30"/>
+      <c r="D22" s="31"/>
     </row>
     <row r="23" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
@@ -1432,7 +1477,7 @@
       <c r="C23" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="30">
+      <c r="D23" s="31">
         <v>44581</v>
       </c>
     </row>
@@ -1446,7 +1491,7 @@
       <c r="C24" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="30"/>
+      <c r="D24" s="31"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
@@ -1486,7 +1531,7 @@
       <c r="C27" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="31">
         <v>44586</v>
       </c>
     </row>
@@ -1500,7 +1545,7 @@
       <c r="C28" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="30"/>
+      <c r="D28" s="31"/>
     </row>
     <row r="29" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
@@ -1512,7 +1557,7 @@
       <c r="C29" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D29" s="31">
         <v>44588</v>
       </c>
     </row>
@@ -1526,7 +1571,7 @@
       <c r="C30" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="30"/>
+      <c r="D30" s="31"/>
     </row>
     <row r="31" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
@@ -1538,7 +1583,7 @@
       <c r="C31" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="30">
+      <c r="D31" s="31">
         <v>44589</v>
       </c>
     </row>
@@ -1552,7 +1597,7 @@
       <c r="C32" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="30"/>
+      <c r="D32" s="31"/>
     </row>
     <row r="33" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
@@ -1564,7 +1609,7 @@
       <c r="C33" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="30">
+      <c r="D33" s="31">
         <v>44592</v>
       </c>
     </row>
@@ -1578,10 +1623,16 @@
       <c r="C34" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="30"/>
+      <c r="D34" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="D13:D14"/>
@@ -1590,12 +1641,6 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1607,7 +1652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD25E0C-56B4-49C9-81FC-B33B23DE8FF6}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
@@ -1641,7 +1686,7 @@
       <c r="C2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="34">
         <v>44593</v>
       </c>
     </row>
@@ -1655,7 +1700,7 @@
       <c r="C3" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="36"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1667,7 +1712,7 @@
       <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="34">
         <v>44594</v>
       </c>
     </row>
@@ -1681,7 +1726,7 @@
       <c r="C5" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -1693,7 +1738,7 @@
       <c r="C6" s="4">
         <v>0</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="34">
         <v>44595</v>
       </c>
     </row>
@@ -1707,7 +1752,7 @@
       <c r="C7" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="36"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -1719,7 +1764,7 @@
       <c r="C8" s="4">
         <v>0</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="34">
         <v>44596</v>
       </c>
     </row>
@@ -1733,7 +1778,7 @@
       <c r="C9" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="36"/>
+      <c r="D9" s="34"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
@@ -1745,7 +1790,7 @@
       <c r="C10" s="4">
         <v>4</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="34">
         <v>44599</v>
       </c>
     </row>
@@ -1759,7 +1804,7 @@
       <c r="C11" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="36"/>
+      <c r="D11" s="34"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -1771,7 +1816,7 @@
       <c r="C12" s="4">
         <v>4</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="34">
         <v>44600</v>
       </c>
     </row>
@@ -1785,7 +1830,7 @@
       <c r="C13" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="36"/>
+      <c r="D13" s="34"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -1797,7 +1842,7 @@
       <c r="C14" s="4">
         <v>4</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="34">
         <v>44601</v>
       </c>
     </row>
@@ -1811,7 +1856,7 @@
       <c r="C15" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="36"/>
+      <c r="D15" s="34"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
@@ -1823,7 +1868,7 @@
       <c r="C16" s="4">
         <v>4</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="34">
         <v>44602</v>
       </c>
     </row>
@@ -1837,7 +1882,7 @@
       <c r="C17" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="36"/>
+      <c r="D17" s="34"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
@@ -1849,7 +1894,7 @@
       <c r="C18" s="4">
         <v>4</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="34">
         <v>44603</v>
       </c>
     </row>
@@ -1863,7 +1908,7 @@
       <c r="C19" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="36"/>
+      <c r="D19" s="34"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
@@ -1875,7 +1920,7 @@
       <c r="C20" s="4">
         <v>4</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="34">
         <v>44606</v>
       </c>
     </row>
@@ -1889,7 +1934,7 @@
       <c r="C21" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="36"/>
+      <c r="D21" s="34"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
@@ -1901,7 +1946,7 @@
       <c r="C22" s="4">
         <v>4</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="34">
         <v>44607</v>
       </c>
     </row>
@@ -1915,17 +1960,17 @@
       <c r="C23" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="36"/>
+      <c r="D23" s="34"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="33">
+      <c r="B24" s="35">
         <v>8</v>
       </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="36">
+      <c r="C24" s="36"/>
+      <c r="D24" s="34">
         <v>44608</v>
       </c>
     </row>
@@ -1933,11 +1978,11 @@
       <c r="A25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="34"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
@@ -1949,7 +1994,7 @@
       <c r="C26" s="4">
         <v>4</v>
       </c>
-      <c r="D26" s="36">
+      <c r="D26" s="34">
         <v>44609</v>
       </c>
     </row>
@@ -1963,7 +2008,7 @@
       <c r="C27" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="36"/>
+      <c r="D27" s="34"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
@@ -1975,7 +2020,7 @@
       <c r="C28" s="4">
         <v>4</v>
       </c>
-      <c r="D28" s="36">
+      <c r="D28" s="34">
         <v>44610</v>
       </c>
     </row>
@@ -1989,7 +2034,7 @@
       <c r="C29" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="36"/>
+      <c r="D29" s="34"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
@@ -2001,7 +2046,7 @@
       <c r="C30" s="4">
         <v>4</v>
       </c>
-      <c r="D30" s="36">
+      <c r="D30" s="34">
         <v>44613</v>
       </c>
     </row>
@@ -2015,7 +2060,7 @@
       <c r="C31" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="36"/>
+      <c r="D31" s="34"/>
     </row>
     <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
@@ -2039,7 +2084,7 @@
       <c r="C33" s="4">
         <v>0</v>
       </c>
-      <c r="D33" s="36">
+      <c r="D33" s="34">
         <v>44614</v>
       </c>
     </row>
@@ -2051,7 +2096,7 @@
         <v>63</v>
       </c>
       <c r="C34" s="17"/>
-      <c r="D34" s="36"/>
+      <c r="D34" s="34"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
@@ -2063,7 +2108,7 @@
       <c r="C35" s="4">
         <v>0</v>
       </c>
-      <c r="D35" s="36">
+      <c r="D35" s="34">
         <v>44615</v>
       </c>
     </row>
@@ -2075,7 +2120,7 @@
         <v>64</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="36"/>
+      <c r="D36" s="34"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
@@ -2087,7 +2132,7 @@
       <c r="C37" s="4">
         <v>0</v>
       </c>
-      <c r="D37" s="36">
+      <c r="D37" s="34">
         <v>44616</v>
       </c>
     </row>
@@ -2099,7 +2144,7 @@
         <v>66</v>
       </c>
       <c r="C38" s="17"/>
-      <c r="D38" s="36"/>
+      <c r="D38" s="34"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
@@ -2111,7 +2156,7 @@
       <c r="C39" s="4">
         <v>0</v>
       </c>
-      <c r="D39" s="36">
+      <c r="D39" s="34">
         <v>44617</v>
       </c>
     </row>
@@ -2123,7 +2168,7 @@
         <v>67</v>
       </c>
       <c r="C40" s="17"/>
-      <c r="D40" s="36"/>
+      <c r="D40" s="34"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
@@ -2135,7 +2180,7 @@
       <c r="C41" s="4">
         <v>0</v>
       </c>
-      <c r="D41" s="36">
+      <c r="D41" s="34">
         <v>44618</v>
       </c>
     </row>
@@ -2147,7 +2192,7 @@
         <v>67</v>
       </c>
       <c r="C42" s="17"/>
-      <c r="D42" s="36"/>
+      <c r="D42" s="34"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
@@ -2159,7 +2204,7 @@
       <c r="C43" s="4">
         <v>0</v>
       </c>
-      <c r="D43" s="36">
+      <c r="D43" s="34">
         <v>44619</v>
       </c>
     </row>
@@ -2171,7 +2216,7 @@
         <v>68</v>
       </c>
       <c r="C44" s="17"/>
-      <c r="D44" s="36"/>
+      <c r="D44" s="34"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
@@ -2183,7 +2228,7 @@
       <c r="C45" s="4">
         <v>0</v>
       </c>
-      <c r="D45" s="36">
+      <c r="D45" s="34">
         <v>44620</v>
       </c>
     </row>
@@ -2195,10 +2240,22 @@
         <v>69</v>
       </c>
       <c r="C46" s="17"/>
-      <c r="D46" s="36"/>
+      <c r="D46" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="D39:D40"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="D43:D44"/>
@@ -2211,18 +2268,6 @@
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2231,10 +2276,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38664062-6459-4C38-9B3B-3A164047A9A0}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2261,11 +2306,11 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="38">
         <v>8</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="36">
+      <c r="C2" s="39"/>
+      <c r="D2" s="34">
         <v>44621</v>
       </c>
     </row>
@@ -2273,11 +2318,11 @@
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -2289,7 +2334,7 @@
       <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="34">
         <v>44622</v>
       </c>
     </row>
@@ -2301,7 +2346,7 @@
         <v>70</v>
       </c>
       <c r="C5" s="17"/>
-      <c r="D5" s="36"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -2313,7 +2358,7 @@
       <c r="C6" s="4">
         <v>0</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="34">
         <v>44623</v>
       </c>
     </row>
@@ -2325,7 +2370,7 @@
         <v>71</v>
       </c>
       <c r="C7" s="17"/>
-      <c r="D7" s="36"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -2337,7 +2382,7 @@
       <c r="C8" s="4">
         <v>0</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="34">
         <v>44624</v>
       </c>
     </row>
@@ -2349,7 +2394,7 @@
         <v>72</v>
       </c>
       <c r="C9" s="17"/>
-      <c r="D9" s="36"/>
+      <c r="D9" s="34"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
@@ -2361,7 +2406,7 @@
       <c r="C10" s="4">
         <v>0</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="34">
         <v>44627</v>
       </c>
     </row>
@@ -2373,7 +2418,7 @@
         <v>76</v>
       </c>
       <c r="C11" s="17"/>
-      <c r="D11" s="36"/>
+      <c r="D11" s="34"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -2385,7 +2430,7 @@
       <c r="C12" s="4">
         <v>0</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="34">
         <v>44628</v>
       </c>
     </row>
@@ -2397,7 +2442,7 @@
         <v>79</v>
       </c>
       <c r="C13" s="17"/>
-      <c r="D13" s="36"/>
+      <c r="D13" s="34"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -2409,7 +2454,7 @@
       <c r="C14" s="4">
         <v>0</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="34">
         <v>44629</v>
       </c>
     </row>
@@ -2421,7 +2466,7 @@
         <v>78</v>
       </c>
       <c r="C15" s="17"/>
-      <c r="D15" s="36"/>
+      <c r="D15" s="34"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
@@ -2433,7 +2478,7 @@
       <c r="C16" s="4">
         <v>0</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="34">
         <v>44630</v>
       </c>
     </row>
@@ -2445,7 +2490,7 @@
         <v>77</v>
       </c>
       <c r="C17" s="17"/>
-      <c r="D17" s="36"/>
+      <c r="D17" s="34"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
@@ -2457,7 +2502,7 @@
       <c r="C18" s="4">
         <v>4</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="34">
         <v>44631</v>
       </c>
     </row>
@@ -2471,7 +2516,7 @@
       <c r="C19" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="36"/>
+      <c r="D19" s="34"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
@@ -2483,7 +2528,7 @@
       <c r="C20" s="4">
         <v>0</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="34">
         <v>44634</v>
       </c>
     </row>
@@ -2495,7 +2540,7 @@
         <v>75</v>
       </c>
       <c r="C21" s="17"/>
-      <c r="D21" s="36"/>
+      <c r="D21" s="34"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
@@ -2507,7 +2552,7 @@
       <c r="C22" s="4">
         <v>0</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="34">
         <v>44635</v>
       </c>
     </row>
@@ -2519,7 +2564,7 @@
         <v>80</v>
       </c>
       <c r="C23" s="17"/>
-      <c r="D23" s="36"/>
+      <c r="D23" s="34"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
@@ -2531,7 +2576,7 @@
       <c r="C24" s="4">
         <v>0</v>
       </c>
-      <c r="D24" s="36">
+      <c r="D24" s="34">
         <v>44636</v>
       </c>
     </row>
@@ -2543,7 +2588,7 @@
         <v>82</v>
       </c>
       <c r="C25" s="17"/>
-      <c r="D25" s="36"/>
+      <c r="D25" s="34"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
@@ -2555,7 +2600,7 @@
       <c r="C26" s="4">
         <v>0</v>
       </c>
-      <c r="D26" s="36">
+      <c r="D26" s="34">
         <v>44637</v>
       </c>
     </row>
@@ -2567,17 +2612,17 @@
         <v>83</v>
       </c>
       <c r="C27" s="17"/>
-      <c r="D27" s="36"/>
+      <c r="D27" s="34"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="33">
+      <c r="B28" s="35">
         <v>8</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="36">
+      <c r="C28" s="36"/>
+      <c r="D28" s="34">
         <v>44638</v>
       </c>
     </row>
@@ -2585,162 +2630,274 @@
       <c r="A29" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="36"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="15">
-        <v>2</v>
-      </c>
-      <c r="C30" s="4">
+      <c r="C29" s="36"/>
+      <c r="D29" s="34"/>
+    </row>
+    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="B30" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="15">
+        <v>2</v>
+      </c>
+      <c r="C31" s="4">
         <v>6</v>
       </c>
-      <c r="D30" s="36">
+      <c r="D31" s="34">
         <v>44641</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="17" t="s">
+    <row r="32" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C32" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D31" s="36"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="15">
-        <v>2</v>
-      </c>
-      <c r="C32" s="4">
+      <c r="D32" s="34"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="15">
+        <v>2</v>
+      </c>
+      <c r="C33" s="4">
         <v>6</v>
       </c>
-      <c r="D32" s="36">
+      <c r="D33" s="34">
         <v>44642</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="17" t="s">
+    <row r="34" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C34" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="36"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="15">
-        <v>2</v>
-      </c>
-      <c r="C34" s="4">
+      <c r="D34" s="34"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="15">
+        <v>2</v>
+      </c>
+      <c r="C35" s="4">
         <v>6</v>
       </c>
-      <c r="D34" s="36">
+      <c r="D35" s="34">
         <v>44643</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="17" t="s">
+    <row r="36" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C36" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="36"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="15">
-        <v>2</v>
-      </c>
-      <c r="C36" s="4">
+      <c r="D36" s="34"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="15">
+        <v>2</v>
+      </c>
+      <c r="C37" s="4">
         <v>6</v>
       </c>
-      <c r="D36" s="36">
+      <c r="D37" s="34">
         <v>44644</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="17" t="s">
+    <row r="38" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C38" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="36"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" s="33">
-        <v>8</v>
-      </c>
-      <c r="C38" s="34"/>
-      <c r="D38" s="36">
-        <v>44645</v>
-      </c>
+      <c r="D38" s="34"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="34"/>
-      <c r="D39" s="36"/>
+        <v>1</v>
+      </c>
+      <c r="B39" s="35">
+        <v>8</v>
+      </c>
+      <c r="C39" s="36"/>
+      <c r="D39" s="34">
+        <v>44645</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" s="33">
-        <v>8</v>
-      </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="36">
-        <v>44648</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="36"/>
+      <c r="D40" s="34"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="35">
+        <v>8</v>
+      </c>
+      <c r="C41" s="36"/>
+      <c r="D41" s="34">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="34"/>
-      <c r="D41" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="34"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="15">
+        <v>4</v>
+      </c>
+      <c r="C43" s="4">
+        <v>4</v>
+      </c>
+      <c r="D43" s="34">
+        <v>44649</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="34"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="35">
+        <v>8</v>
+      </c>
+      <c r="C45" s="36"/>
+      <c r="D45" s="34">
+        <v>44650</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="36"/>
+      <c r="D46" s="34"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="15">
+        <v>4</v>
+      </c>
+      <c r="C47" s="4">
+        <v>4</v>
+      </c>
+      <c r="D47" s="34">
+        <v>44651</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="33">
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="B2:C2"/>
@@ -2748,30 +2905,98 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="B39:C39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04172E7-821F-44C0-86A6-E4CB79968D23}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="39.109375" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4</v>
+      </c>
+      <c r="D2" s="34">
+        <v>44652</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="34"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="34">
+        <v>44655</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2782,15 +3007,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010071FEBA6E59F1114FA1DBADB5A19192F5" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="68d738ba6abfae8d013aeb1fb6af46ea">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="33e4e33d-ffb4-4a17-9b1b-478bea8d3710" xmlns:ns4="9120eac6-4b18-4abe-a762-bd257214a810" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dae310c37f0a31cfa956236035f6b2a5" ns3:_="" ns4:_="">
     <xsd:import namespace="33e4e33d-ffb4-4a17-9b1b-478bea8d3710"/>
@@ -2999,6 +3215,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD282290-682D-4720-AA66-05DB34A587D9}">
   <ds:schemaRefs>
@@ -3017,14 +3242,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81EA1DDF-0A41-4AEA-8848-5B89771E278B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{248AF9C3-A2BF-4479-B7A8-B2BDE179A582}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3041,4 +3258,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81EA1DDF-0A41-4AEA-8848-5B89771E278B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/rishabh_timesheet.xlsx
+++ b/rishabh_timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55683\OneDrive - ICF\Desktop\timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A7EE5E-CF11-4AF8-8964-35C976966327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB387DA-01E8-41F4-AF94-F91B414C750D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{91D1710D-DA54-4467-A82A-013A3D0A24E4}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="105">
   <si>
     <t>CODE</t>
   </si>
@@ -454,9 +454,35 @@
     <t>learn different types of run modes and how to use them.</t>
   </si>
   <si>
+    <t>learn different types of run modes and how to use them.
+Know how to enable debugger in AEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project: Crisil
+Task: CR 
+Task Detail: working on the part of the services part for the indices automation task </t>
+  </si>
+  <si>
     <t>Project: Crisil
 Task: CR 
-Task Detail: working on services part for the indices automation task</t>
+Task Detail: testing services for the indices automation task</t>
+  </si>
+  <si>
+    <t>Project: Crisil
+Task: CR 
+Task Detail: testing services for the indices automation task
+working SOLR crud operation</t>
+  </si>
+  <si>
+    <t>Project: Crisil
+Task: CR 
+Task Detail: testing services for the indices automation task
+working SOLR crud operation(post-operation done)</t>
+  </si>
+  <si>
+    <t>learn different types of run modes and how to use them.
+Know how to enable debugger in AEM
+AEM instance got crashed so rectifying this problem</t>
   </si>
 </sst>
 </file>
@@ -681,17 +707,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1016,7 +1042,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1627,12 +1653,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="D13:D14"/>
@@ -1641,6 +1661,12 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1686,7 +1712,7 @@
       <c r="C2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="37">
         <v>44593</v>
       </c>
     </row>
@@ -1700,7 +1726,7 @@
       <c r="C3" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1712,7 +1738,7 @@
       <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="37">
         <v>44594</v>
       </c>
     </row>
@@ -1726,7 +1752,7 @@
       <c r="C5" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="34"/>
+      <c r="D5" s="37"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -1738,7 +1764,7 @@
       <c r="C6" s="4">
         <v>0</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="37">
         <v>44595</v>
       </c>
     </row>
@@ -1752,7 +1778,7 @@
       <c r="C7" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="34"/>
+      <c r="D7" s="37"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -1764,7 +1790,7 @@
       <c r="C8" s="4">
         <v>0</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="37">
         <v>44596</v>
       </c>
     </row>
@@ -1778,7 +1804,7 @@
       <c r="C9" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="34"/>
+      <c r="D9" s="37"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
@@ -1790,7 +1816,7 @@
       <c r="C10" s="4">
         <v>4</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="37">
         <v>44599</v>
       </c>
     </row>
@@ -1804,7 +1830,7 @@
       <c r="C11" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="D11" s="37"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -1816,7 +1842,7 @@
       <c r="C12" s="4">
         <v>4</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="37">
         <v>44600</v>
       </c>
     </row>
@@ -1830,7 +1856,7 @@
       <c r="C13" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="34"/>
+      <c r="D13" s="37"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -1842,7 +1868,7 @@
       <c r="C14" s="4">
         <v>4</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="37">
         <v>44601</v>
       </c>
     </row>
@@ -1856,7 +1882,7 @@
       <c r="C15" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="34"/>
+      <c r="D15" s="37"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
@@ -1868,7 +1894,7 @@
       <c r="C16" s="4">
         <v>4</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="37">
         <v>44602</v>
       </c>
     </row>
@@ -1882,7 +1908,7 @@
       <c r="C17" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="34"/>
+      <c r="D17" s="37"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
@@ -1894,7 +1920,7 @@
       <c r="C18" s="4">
         <v>4</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="37">
         <v>44603</v>
       </c>
     </row>
@@ -1908,7 +1934,7 @@
       <c r="C19" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="34"/>
+      <c r="D19" s="37"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
@@ -1920,7 +1946,7 @@
       <c r="C20" s="4">
         <v>4</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="37">
         <v>44606</v>
       </c>
     </row>
@@ -1934,7 +1960,7 @@
       <c r="C21" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="34"/>
+      <c r="D21" s="37"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
@@ -1946,7 +1972,7 @@
       <c r="C22" s="4">
         <v>4</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D22" s="37">
         <v>44607</v>
       </c>
     </row>
@@ -1960,17 +1986,17 @@
       <c r="C23" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="34"/>
+      <c r="D23" s="37"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="35">
+      <c r="B24" s="34">
         <v>8</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="34">
+      <c r="C24" s="35"/>
+      <c r="D24" s="37">
         <v>44608</v>
       </c>
     </row>
@@ -1978,11 +2004,11 @@
       <c r="A25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="34"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="37"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
@@ -1994,7 +2020,7 @@
       <c r="C26" s="4">
         <v>4</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26" s="37">
         <v>44609</v>
       </c>
     </row>
@@ -2008,7 +2034,7 @@
       <c r="C27" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="34"/>
+      <c r="D27" s="37"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
@@ -2020,7 +2046,7 @@
       <c r="C28" s="4">
         <v>4</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D28" s="37">
         <v>44610</v>
       </c>
     </row>
@@ -2034,7 +2060,7 @@
       <c r="C29" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="34"/>
+      <c r="D29" s="37"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
@@ -2046,7 +2072,7 @@
       <c r="C30" s="4">
         <v>4</v>
       </c>
-      <c r="D30" s="34">
+      <c r="D30" s="37">
         <v>44613</v>
       </c>
     </row>
@@ -2060,7 +2086,7 @@
       <c r="C31" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="34"/>
+      <c r="D31" s="37"/>
     </row>
     <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
@@ -2084,7 +2110,7 @@
       <c r="C33" s="4">
         <v>0</v>
       </c>
-      <c r="D33" s="34">
+      <c r="D33" s="37">
         <v>44614</v>
       </c>
     </row>
@@ -2096,7 +2122,7 @@
         <v>63</v>
       </c>
       <c r="C34" s="17"/>
-      <c r="D34" s="34"/>
+      <c r="D34" s="37"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
@@ -2108,7 +2134,7 @@
       <c r="C35" s="4">
         <v>0</v>
       </c>
-      <c r="D35" s="34">
+      <c r="D35" s="37">
         <v>44615</v>
       </c>
     </row>
@@ -2120,7 +2146,7 @@
         <v>64</v>
       </c>
       <c r="C36" s="17"/>
-      <c r="D36" s="34"/>
+      <c r="D36" s="37"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
@@ -2132,7 +2158,7 @@
       <c r="C37" s="4">
         <v>0</v>
       </c>
-      <c r="D37" s="34">
+      <c r="D37" s="37">
         <v>44616</v>
       </c>
     </row>
@@ -2144,7 +2170,7 @@
         <v>66</v>
       </c>
       <c r="C38" s="17"/>
-      <c r="D38" s="34"/>
+      <c r="D38" s="37"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
@@ -2156,7 +2182,7 @@
       <c r="C39" s="4">
         <v>0</v>
       </c>
-      <c r="D39" s="34">
+      <c r="D39" s="37">
         <v>44617</v>
       </c>
     </row>
@@ -2168,7 +2194,7 @@
         <v>67</v>
       </c>
       <c r="C40" s="17"/>
-      <c r="D40" s="34"/>
+      <c r="D40" s="37"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
@@ -2180,7 +2206,7 @@
       <c r="C41" s="4">
         <v>0</v>
       </c>
-      <c r="D41" s="34">
+      <c r="D41" s="37">
         <v>44618</v>
       </c>
     </row>
@@ -2192,7 +2218,7 @@
         <v>67</v>
       </c>
       <c r="C42" s="17"/>
-      <c r="D42" s="34"/>
+      <c r="D42" s="37"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
@@ -2204,7 +2230,7 @@
       <c r="C43" s="4">
         <v>0</v>
       </c>
-      <c r="D43" s="34">
+      <c r="D43" s="37">
         <v>44619</v>
       </c>
     </row>
@@ -2216,7 +2242,7 @@
         <v>68</v>
       </c>
       <c r="C44" s="17"/>
-      <c r="D44" s="34"/>
+      <c r="D44" s="37"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
@@ -2228,7 +2254,7 @@
       <c r="C45" s="4">
         <v>0</v>
       </c>
-      <c r="D45" s="34">
+      <c r="D45" s="37">
         <v>44620</v>
       </c>
     </row>
@@ -2240,22 +2266,10 @@
         <v>69</v>
       </c>
       <c r="C46" s="17"/>
-      <c r="D46" s="34"/>
+      <c r="D46" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
     <mergeCell ref="D39:D40"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="D43:D44"/>
@@ -2268,6 +2282,18 @@
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2278,8 +2304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38664062-6459-4C38-9B3B-3A164047A9A0}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:D32"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2310,7 +2336,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="39"/>
-      <c r="D2" s="34">
+      <c r="D2" s="37">
         <v>44621</v>
       </c>
     </row>
@@ -2318,11 +2344,11 @@
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="34"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -2334,7 +2360,7 @@
       <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="37">
         <v>44622</v>
       </c>
     </row>
@@ -2346,7 +2372,7 @@
         <v>70</v>
       </c>
       <c r="C5" s="17"/>
-      <c r="D5" s="34"/>
+      <c r="D5" s="37"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -2358,7 +2384,7 @@
       <c r="C6" s="4">
         <v>0</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="37">
         <v>44623</v>
       </c>
     </row>
@@ -2370,7 +2396,7 @@
         <v>71</v>
       </c>
       <c r="C7" s="17"/>
-      <c r="D7" s="34"/>
+      <c r="D7" s="37"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -2382,7 +2408,7 @@
       <c r="C8" s="4">
         <v>0</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="37">
         <v>44624</v>
       </c>
     </row>
@@ -2394,7 +2420,7 @@
         <v>72</v>
       </c>
       <c r="C9" s="17"/>
-      <c r="D9" s="34"/>
+      <c r="D9" s="37"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
@@ -2406,7 +2432,7 @@
       <c r="C10" s="4">
         <v>0</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="37">
         <v>44627</v>
       </c>
     </row>
@@ -2418,7 +2444,7 @@
         <v>76</v>
       </c>
       <c r="C11" s="17"/>
-      <c r="D11" s="34"/>
+      <c r="D11" s="37"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -2430,7 +2456,7 @@
       <c r="C12" s="4">
         <v>0</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="37">
         <v>44628</v>
       </c>
     </row>
@@ -2442,7 +2468,7 @@
         <v>79</v>
       </c>
       <c r="C13" s="17"/>
-      <c r="D13" s="34"/>
+      <c r="D13" s="37"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -2454,7 +2480,7 @@
       <c r="C14" s="4">
         <v>0</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="37">
         <v>44629</v>
       </c>
     </row>
@@ -2466,7 +2492,7 @@
         <v>78</v>
       </c>
       <c r="C15" s="17"/>
-      <c r="D15" s="34"/>
+      <c r="D15" s="37"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
@@ -2478,7 +2504,7 @@
       <c r="C16" s="4">
         <v>0</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="37">
         <v>44630</v>
       </c>
     </row>
@@ -2490,7 +2516,7 @@
         <v>77</v>
       </c>
       <c r="C17" s="17"/>
-      <c r="D17" s="34"/>
+      <c r="D17" s="37"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
@@ -2502,7 +2528,7 @@
       <c r="C18" s="4">
         <v>4</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="37">
         <v>44631</v>
       </c>
     </row>
@@ -2516,7 +2542,7 @@
       <c r="C19" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="34"/>
+      <c r="D19" s="37"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
@@ -2528,7 +2554,7 @@
       <c r="C20" s="4">
         <v>0</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="37">
         <v>44634</v>
       </c>
     </row>
@@ -2540,7 +2566,7 @@
         <v>75</v>
       </c>
       <c r="C21" s="17"/>
-      <c r="D21" s="34"/>
+      <c r="D21" s="37"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
@@ -2552,7 +2578,7 @@
       <c r="C22" s="4">
         <v>0</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D22" s="37">
         <v>44635</v>
       </c>
     </row>
@@ -2564,7 +2590,7 @@
         <v>80</v>
       </c>
       <c r="C23" s="17"/>
-      <c r="D23" s="34"/>
+      <c r="D23" s="37"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
@@ -2576,7 +2602,7 @@
       <c r="C24" s="4">
         <v>0</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="37">
         <v>44636</v>
       </c>
     </row>
@@ -2588,7 +2614,7 @@
         <v>82</v>
       </c>
       <c r="C25" s="17"/>
-      <c r="D25" s="34"/>
+      <c r="D25" s="37"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
@@ -2600,7 +2626,7 @@
       <c r="C26" s="4">
         <v>0</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26" s="37">
         <v>44637</v>
       </c>
     </row>
@@ -2612,17 +2638,17 @@
         <v>83</v>
       </c>
       <c r="C27" s="17"/>
-      <c r="D27" s="34"/>
+      <c r="D27" s="37"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="35">
+      <c r="B28" s="34">
         <v>8</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="34">
+      <c r="C28" s="35"/>
+      <c r="D28" s="37">
         <v>44638</v>
       </c>
     </row>
@@ -2630,11 +2656,11 @@
       <c r="A29" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="34"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="37"/>
     </row>
     <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
@@ -2658,7 +2684,7 @@
       <c r="C31" s="4">
         <v>6</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D31" s="37">
         <v>44641</v>
       </c>
     </row>
@@ -2672,7 +2698,7 @@
       <c r="C32" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="34"/>
+      <c r="D32" s="37"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
@@ -2684,7 +2710,7 @@
       <c r="C33" s="4">
         <v>6</v>
       </c>
-      <c r="D33" s="34">
+      <c r="D33" s="37">
         <v>44642</v>
       </c>
     </row>
@@ -2698,7 +2724,7 @@
       <c r="C34" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D34" s="34"/>
+      <c r="D34" s="37"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
@@ -2710,7 +2736,7 @@
       <c r="C35" s="4">
         <v>6</v>
       </c>
-      <c r="D35" s="34">
+      <c r="D35" s="37">
         <v>44643</v>
       </c>
     </row>
@@ -2724,7 +2750,7 @@
       <c r="C36" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D36" s="34"/>
+      <c r="D36" s="37"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
@@ -2736,7 +2762,7 @@
       <c r="C37" s="4">
         <v>6</v>
       </c>
-      <c r="D37" s="34">
+      <c r="D37" s="37">
         <v>44644</v>
       </c>
     </row>
@@ -2750,17 +2776,17 @@
       <c r="C38" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="34"/>
+      <c r="D38" s="37"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="35">
+      <c r="B39" s="34">
         <v>8</v>
       </c>
-      <c r="C39" s="36"/>
-      <c r="D39" s="34">
+      <c r="C39" s="35"/>
+      <c r="D39" s="37">
         <v>44645</v>
       </c>
     </row>
@@ -2768,21 +2794,21 @@
       <c r="A40" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="34"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="37"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="35">
+      <c r="B41" s="34">
         <v>8</v>
       </c>
-      <c r="C41" s="36"/>
-      <c r="D41" s="34">
+      <c r="C41" s="35"/>
+      <c r="D41" s="37">
         <v>44648</v>
       </c>
     </row>
@@ -2790,11 +2816,11 @@
       <c r="A42" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="36"/>
-      <c r="D42" s="34"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="37"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
@@ -2806,7 +2832,7 @@
       <c r="C43" s="4">
         <v>4</v>
       </c>
-      <c r="D43" s="34">
+      <c r="D43" s="37">
         <v>44649</v>
       </c>
     </row>
@@ -2820,17 +2846,17 @@
       <c r="C44" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D44" s="34"/>
+      <c r="D44" s="37"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="35">
+      <c r="B45" s="34">
         <v>8</v>
       </c>
-      <c r="C45" s="36"/>
-      <c r="D45" s="34">
+      <c r="C45" s="35"/>
+      <c r="D45" s="37">
         <v>44650</v>
       </c>
     </row>
@@ -2838,11 +2864,11 @@
       <c r="A46" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="36"/>
-      <c r="D46" s="34"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="37"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
@@ -2854,7 +2880,7 @@
       <c r="C47" s="4">
         <v>4</v>
       </c>
-      <c r="D47" s="34">
+      <c r="D47" s="37">
         <v>44651</v>
       </c>
     </row>
@@ -2868,15 +2894,29 @@
       <c r="C48" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D48" s="34"/>
+      <c r="D48" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="B42:C42"/>
@@ -2886,25 +2926,11 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:D40"/>
     <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D47:D48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2913,10 +2939,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04172E7-821F-44C0-86A6-E4CB79968D23}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2927,7 +2953,7 @@
     <col min="4" max="4" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="15" t="s">
         <v>47</v>
@@ -2949,7 +2975,7 @@
       <c r="C2" s="4">
         <v>4</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="37">
         <v>44652</v>
       </c>
     </row>
@@ -2963,7 +2989,7 @@
       <c r="C3" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -2975,7 +3001,7 @@
       <c r="C4" s="4">
         <v>4</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="37">
         <v>44655</v>
       </c>
     </row>
@@ -2987,14 +3013,120 @@
         <v>98</v>
       </c>
       <c r="C5" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="37"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="15">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>4</v>
+      </c>
+      <c r="D6" s="37">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="34"/>
+      <c r="C7" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="37"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="15">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4</v>
+      </c>
+      <c r="D8" s="37">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="37"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="34">
+        <v>8</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="37">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="37"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="15">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4">
+        <v>4</v>
+      </c>
+      <c r="D12" s="37">
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="8">
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3007,6 +3139,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010071FEBA6E59F1114FA1DBADB5A19192F5" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="68d738ba6abfae8d013aeb1fb6af46ea">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="33e4e33d-ffb4-4a17-9b1b-478bea8d3710" xmlns:ns4="9120eac6-4b18-4abe-a762-bd257214a810" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dae310c37f0a31cfa956236035f6b2a5" ns3:_="" ns4:_="">
     <xsd:import namespace="33e4e33d-ffb4-4a17-9b1b-478bea8d3710"/>
@@ -3215,15 +3356,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD282290-682D-4720-AA66-05DB34A587D9}">
   <ds:schemaRefs>
@@ -3242,6 +3374,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81EA1DDF-0A41-4AEA-8848-5B89771E278B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{248AF9C3-A2BF-4479-B7A8-B2BDE179A582}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3258,12 +3398,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81EA1DDF-0A41-4AEA-8848-5B89771E278B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/rishabh_timesheet.xlsx
+++ b/rishabh_timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55683\OneDrive - ICF\Desktop\timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB387DA-01E8-41F4-AF94-F91B414C750D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C47EEFC-97BC-48E3-A10B-1881BAD98510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{91D1710D-DA54-4467-A82A-013A3D0A24E4}"/>
+    <workbookView xWindow="2616" yWindow="144" windowWidth="14328" windowHeight="12216" activeTab="4" xr2:uid="{91D1710D-DA54-4467-A82A-013A3D0A24E4}"/>
   </bookViews>
   <sheets>
     <sheet name="CODE" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="114">
   <si>
     <t>CODE</t>
   </si>
@@ -483,6 +483,43 @@
     <t>learn different types of run modes and how to use them.
 Know how to enable debugger in AEM
 AEM instance got crashed so rectifying this problem</t>
+  </si>
+  <si>
+    <t>learn how to use SOLR locally</t>
+  </si>
+  <si>
+    <t>learn how to integrate locally SOLR to the Postman.</t>
+  </si>
+  <si>
+    <t>learn how to post data in SOLR using the Postman</t>
+  </si>
+  <si>
+    <t>learn how to write queries for SOLR in the Postman body.</t>
+  </si>
+  <si>
+    <t>Project: Crisil
+Task: CR 
+Task Detail: working on the part of the Services to push individual indices historical factsheet data and overall factsheet data inside SOLR</t>
+  </si>
+  <si>
+    <t>Project: Crisil
+Task: CR 
+Task Detail: Completed and Tested the part of the Services to push individual indices historical factsheet data and overall factsheet data inside SOLR
+Code reviewed done</t>
+  </si>
+  <si>
+    <t>Project: Crisil
+Task: CR 
+Task Detail: working on the part of the Services to get individual indices historical factsheet data from SOLR</t>
+  </si>
+  <si>
+    <t>Project: Crisil
+Task: CR 
+Task Detail: Completed and Tested the part of the Services to get individual indices historical factsheet data from SOLR
+Code reviewed done</t>
+  </si>
+  <si>
+    <t>Learn how to connect local SOLR to AEM Project</t>
   </si>
 </sst>
 </file>
@@ -529,7 +566,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -602,11 +639,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -723,6 +773,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1042,7 +1098,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2939,10 +2995,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04172E7-821F-44C0-86A6-E4CB79968D23}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3117,8 +3173,160 @@
       </c>
       <c r="D13" s="37"/>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="15">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4">
+        <v>4</v>
+      </c>
+      <c r="D14" s="37">
+        <v>44662</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="37"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="15">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4">
+        <v>4</v>
+      </c>
+      <c r="D16" s="37">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="37"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="15">
+        <v>4</v>
+      </c>
+      <c r="C18" s="4">
+        <v>4</v>
+      </c>
+      <c r="D18" s="37">
+        <v>44664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="37"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="15">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4">
+        <v>4</v>
+      </c>
+      <c r="D20" s="37">
+        <v>44665</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="37"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="34">
+        <v>8</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="40">
+        <v>44666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="41"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="15">
+        <v>4</v>
+      </c>
+      <c r="C24" s="4">
+        <v>4</v>
+      </c>
+      <c r="D24" s="40">
+        <v>44669</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="41"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="16">
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
@@ -3127,6 +3335,14 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rishabh_timesheet.xlsx
+++ b/rishabh_timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55683\OneDrive - ICF\Desktop\timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C47EEFC-97BC-48E3-A10B-1881BAD98510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D456E6-419E-4D81-A911-764D822D8B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="144" windowWidth="14328" windowHeight="12216" activeTab="4" xr2:uid="{91D1710D-DA54-4467-A82A-013A3D0A24E4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{91D1710D-DA54-4467-A82A-013A3D0A24E4}"/>
   </bookViews>
   <sheets>
     <sheet name="CODE" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="February" sheetId="3" r:id="rId3"/>
     <sheet name="March" sheetId="4" r:id="rId4"/>
     <sheet name="April" sheetId="5" r:id="rId5"/>
+    <sheet name="May" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="155">
   <si>
     <t>CODE</t>
   </si>
@@ -134,9 +135,6 @@
   </si>
   <si>
     <t>NAME</t>
-  </si>
-  <si>
-    <t>RELATED CODE</t>
   </si>
   <si>
     <t>Prepared a presentation to demo my project as of now what I learn in this.
@@ -520,6 +518,148 @@
   </si>
   <si>
     <t>Learn how to connect local SOLR to AEM Project</t>
+  </si>
+  <si>
+    <t>Learn how to do validation in AEM</t>
+  </si>
+  <si>
+    <t>Project: Crisil
+Task: CR 
+Task Detail: I am working on the Validation part of the Indices Automation Task.
+Completed the code work, need to test only.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project: Crisil
+Task: CR 
+Task Detail: </t>
+  </si>
+  <si>
+    <t>Learn how to do validation in AEM
+Exploring full CRISIL projects</t>
+  </si>
+  <si>
+    <t>Project: Crisil
+Task: CR 
+Task Detail: I am doing Testing on the Validation part of the Indices Automation Task.
+Completed testing.</t>
+  </si>
+  <si>
+    <t>Exploring full CRISIL projects
+got to know how many templates are there
+got to know how many components are there</t>
+  </si>
+  <si>
+    <t>Completed all compliance training
+Gave demo of full CRISIL Site</t>
+  </si>
+  <si>
+    <t>Did one round of Unit testing of my whole API which was previously developed</t>
+  </si>
+  <si>
+    <t>Learning concept of Metadata creation</t>
+  </si>
+  <si>
+    <t>Project: Crisil
+Task: CR 
+Task Detail: Adding two metadata properties in ASSET</t>
+  </si>
+  <si>
+    <t>Learning the concept of Metadata creation and overriding property of metadata</t>
+  </si>
+  <si>
+    <t>Demo of project</t>
+  </si>
+  <si>
+    <t>Demo of AEM concept</t>
+  </si>
+  <si>
+    <t>Project: Crisil
+Task: CR 
+Task Detail: Working on Archive data development task</t>
+  </si>
+  <si>
+    <t>Learning the concept of Asset API</t>
+  </si>
+  <si>
+    <t>Other Paid Leave / Comp Off code</t>
+  </si>
+  <si>
+    <t>Floating Holiday</t>
+  </si>
+  <si>
+    <t>General Indirect - 07509</t>
+  </si>
+  <si>
+    <t>Recruiting-07509</t>
+  </si>
+  <si>
+    <t>015005.0.07509</t>
+  </si>
+  <si>
+    <t>Training Atten-07509</t>
+  </si>
+  <si>
+    <t>015012.0.07509</t>
+  </si>
+  <si>
+    <t>Training Devel-07509</t>
+  </si>
+  <si>
+    <t>015013.0.07509</t>
+  </si>
+  <si>
+    <t>HR Management-07509</t>
+  </si>
+  <si>
+    <t>015014.0.07509</t>
+  </si>
+  <si>
+    <t>College Recruiting-07509</t>
+  </si>
+  <si>
+    <t>015017.0.07509</t>
+  </si>
+  <si>
+    <t>Performance Review-07509</t>
+  </si>
+  <si>
+    <t>015019.0.07509</t>
+  </si>
+  <si>
+    <t>Group Mkt/CRM-07509</t>
+  </si>
+  <si>
+    <t>015031.0.07509</t>
+  </si>
+  <si>
+    <t>New Hire Buddy - 07509</t>
+  </si>
+  <si>
+    <t>015063.0.07509</t>
+  </si>
+  <si>
+    <t>D&amp;I Training-07509</t>
+  </si>
+  <si>
+    <t>015095.0.07509</t>
+  </si>
+  <si>
+    <t>Weather/Emergencies-07509</t>
+  </si>
+  <si>
+    <t>015810.0.07509</t>
+  </si>
+  <si>
+    <t>Bid and Proposal-07509</t>
+  </si>
+  <si>
+    <t>017040.0.07509</t>
+  </si>
+  <si>
+    <t>Unassigned Project  07509</t>
+  </si>
+  <si>
+    <t>019999.0.07509</t>
   </si>
 </sst>
 </file>
@@ -529,7 +669,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]dd\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,6 +696,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="2">
@@ -629,17 +780,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -652,11 +792,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF9A9A9A"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF9A9A9A"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -675,9 +826,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -718,15 +866,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -748,13 +887,19 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -778,8 +923,20 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1095,83 +1252,204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8568C51-A3B1-4ED9-851C-00FAAEFAC243}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" style="27" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="24.45" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="43">
         <v>15001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>15002</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>15003</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="29">
+        <v>15006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="29">
+        <v>15009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>85</v>
+    </row>
+    <row r="12" spans="1:2" ht="15" thickBot="1">
+      <c r="A12" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1">
+      <c r="A13" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" thickBot="1">
+      <c r="A14" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" thickBot="1">
+      <c r="A15" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" thickBot="1">
+      <c r="A16" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" thickBot="1">
+      <c r="A17" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" thickBot="1">
+      <c r="A18" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" thickBot="1">
+      <c r="A19" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" thickBot="1">
+      <c r="A20" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" thickBot="1">
+      <c r="A21" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" thickBot="1">
+      <c r="A22" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" thickBot="1">
+      <c r="A23" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" thickBot="1">
+      <c r="A24" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1181,13 +1459,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C3AD78-21C2-40ED-A814-165D4FC13558}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="8.5546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="41.21875" style="3" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" style="1" customWidth="1"/>
@@ -1195,7 +1473,7 @@
     <col min="6" max="6" width="16.77734375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1208,504 +1486,480 @@
       <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1"/>
+      <c r="F1"/>
+    </row>
+    <row r="2" spans="1:6" ht="57.6">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="18">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="30">
+        <v>44564</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3" spans="1:6" ht="57.6">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="18">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="1:6" ht="57.6">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="18">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="30">
+        <v>44565</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:6" ht="72">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="31"/>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:6" ht="86.4">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="30">
+        <v>44566</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:6" ht="28.8">
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="18">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:6" ht="57.6">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="18">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="30">
+        <v>44567</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:6" ht="72">
+      <c r="A9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="18">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:6" ht="57.6">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="18">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="30">
+        <v>44568</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:6" ht="72">
+      <c r="A11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="18">
+        <v>5</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:6" ht="57.6">
+      <c r="A12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="18">
+        <v>8</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="D12" s="17">
+        <v>44571</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="1:6" ht="28.8">
+      <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B13" s="18">
+        <v>4</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="30">
+        <v>44572</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:6" ht="72">
+      <c r="A14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="18">
+        <v>4</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:6" ht="43.2">
+      <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="B15" s="18">
+        <v>2</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="30">
+        <v>44573</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="1:6" ht="43.2">
+      <c r="A16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="18">
+        <v>6</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="1:6" ht="129.6">
+      <c r="A17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="18">
         <v>8</v>
       </c>
-      <c r="D2" s="31">
-        <v>44564</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="C17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="17">
+        <v>44574</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" spans="1:6" ht="72">
+      <c r="A18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="18">
+        <v>2</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="30">
+        <v>44578</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+    </row>
+    <row r="19" spans="1:6" ht="72">
+      <c r="A19" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="B19" s="18">
+        <v>6</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="30"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+    </row>
+    <row r="20" spans="1:6" ht="28.8">
+      <c r="A20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="18">
+        <v>8</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="17">
+        <v>44579</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" spans="1:6" ht="43.2">
+      <c r="A21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="18">
+        <v>5</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="30">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B22" s="18">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="21" t="s">
+      <c r="C22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="30"/>
+    </row>
+    <row r="23" spans="1:6" ht="57.6">
+      <c r="A23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="18">
+        <v>5</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="30">
+        <v>44581</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="28.8">
+      <c r="A24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="18">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="30"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="18">
+        <v>8</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="17">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="86.4">
+      <c r="A26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="18">
+        <v>8</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="17">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="72">
+      <c r="A27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="18">
         <v>6</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="C27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="30">
+        <v>44586</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="B28" s="18">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="30"/>
+    </row>
+    <row r="29" spans="1:6" ht="129.6">
+      <c r="A29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="18">
+        <v>6</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="30">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B30" s="18">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="30"/>
+    </row>
+    <row r="31" spans="1:6" ht="86.4">
+      <c r="A31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="18">
+        <v>6</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="30">
+        <v>44589</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="28.8">
+      <c r="A32" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="31">
-        <v>44565</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="7">
-        <v>15001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="B32" s="18">
+        <v>2</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="30"/>
+    </row>
+    <row r="33" spans="1:4" ht="72">
+      <c r="A33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="19">
-        <v>3</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="7">
-        <v>15002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="B33" s="18">
+        <v>2</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="30">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="28.8">
+      <c r="A34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="19">
-        <v>5</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="31">
-        <v>44566</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="23">
-        <v>15003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="19">
-        <v>3</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="19">
-        <v>3</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="31">
-        <v>44567</v>
-      </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-    </row>
-    <row r="9" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="19">
-        <v>5</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-    </row>
-    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="19">
-        <v>3</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="31">
-        <v>44568</v>
-      </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-    </row>
-    <row r="11" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="19">
-        <v>5</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-    </row>
-    <row r="12" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="19">
-        <v>8</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="18">
-        <v>44571</v>
-      </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-    </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="19">
-        <v>4</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="31">
-        <v>44572</v>
-      </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-    </row>
-    <row r="14" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="19">
-        <v>4</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-    </row>
-    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="19">
-        <v>2</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="31">
-        <v>44573</v>
-      </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-    </row>
-    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="19">
+      <c r="B34" s="18">
         <v>6</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-    </row>
-    <row r="17" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="19">
-        <v>8</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="18">
-        <v>44574</v>
-      </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-    </row>
-    <row r="18" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="19">
-        <v>2</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="31">
-        <v>44578</v>
-      </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-    </row>
-    <row r="19" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="19">
-        <v>6</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-    </row>
-    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="19">
-        <v>8</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="18">
-        <v>44579</v>
-      </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-    </row>
-    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="19">
-        <v>5</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="31">
-        <v>44580</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="19">
-        <v>3</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="31"/>
-    </row>
-    <row r="23" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="19">
-        <v>5</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="31">
-        <v>44581</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="19">
-        <v>3</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="31"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="19">
-        <v>8</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="18">
-        <v>44582</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="19">
-        <v>8</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="18">
-        <v>44585</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="19">
-        <v>6</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="31">
-        <v>44586</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="19">
-        <v>2</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="31"/>
-    </row>
-    <row r="29" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="19">
-        <v>6</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="31">
-        <v>44588</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="19">
-        <v>2</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="31"/>
-    </row>
-    <row r="31" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="19">
-        <v>6</v>
-      </c>
-      <c r="C31" s="8" t="s">
+      <c r="C34" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="31">
-        <v>44589</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="19">
-        <v>2</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="31"/>
-    </row>
-    <row r="33" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="19">
-        <v>2</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="31">
-        <v>44592</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="19">
-        <v>6</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="31"/>
+      <c r="D34" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1734,595 +1988,595 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD25E0C-56B4-49C9-81FC-B33B23DE8FF6}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.21875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="41.44140625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="41.77734375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="41.44140625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="41.77734375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="28.8" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" s="35">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="43.2">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4">
-        <v>2</v>
-      </c>
-      <c r="D2" s="37">
-        <v>44593</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="37"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" s="35"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>8</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="35">
         <v>44594</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="57.6">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="37"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="35"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>8</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="35">
         <v>44595</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="28.8">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="37"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="35"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>8</v>
       </c>
       <c r="C8" s="4">
         <v>0</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="35">
         <v>44596</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="28.8">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="37"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="35"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>4</v>
       </c>
       <c r="C10" s="4">
         <v>4</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="35">
         <v>44599</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="57.6">
       <c r="A11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="17" t="s">
+      <c r="B11" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="35"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="14">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4">
+        <v>4</v>
+      </c>
+      <c r="D12" s="35">
+        <v>44600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="57.6">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="35"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="14">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4">
+        <v>4</v>
+      </c>
+      <c r="D14" s="35">
+        <v>44601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="57.6">
+      <c r="A15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="37"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="15">
-        <v>4</v>
-      </c>
-      <c r="C12" s="4">
-        <v>4</v>
-      </c>
-      <c r="D12" s="37">
-        <v>44600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="37"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="15">
-        <v>4</v>
-      </c>
-      <c r="C14" s="4">
-        <v>4</v>
-      </c>
-      <c r="D14" s="37">
-        <v>44601</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="17" t="s">
+      <c r="D15" s="35"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="14">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4">
+        <v>4</v>
+      </c>
+      <c r="D16" s="35">
+        <v>44602</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="57.6">
+      <c r="A17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="37"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="15">
-        <v>4</v>
-      </c>
-      <c r="C16" s="4">
-        <v>4</v>
-      </c>
-      <c r="D16" s="37">
-        <v>44602</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="17" t="s">
+      <c r="D17" s="35"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="14">
+        <v>4</v>
+      </c>
+      <c r="C18" s="4">
+        <v>4</v>
+      </c>
+      <c r="D18" s="35">
+        <v>44603</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="43.2">
+      <c r="A19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="37"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="15">
-        <v>4</v>
-      </c>
-      <c r="C18" s="4">
-        <v>4</v>
-      </c>
-      <c r="D18" s="37">
-        <v>44603</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="17" t="s">
+      <c r="D19" s="35"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="14">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4">
+        <v>4</v>
+      </c>
+      <c r="D20" s="35">
+        <v>44606</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="100.8">
+      <c r="A21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="37"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="15">
-        <v>4</v>
-      </c>
-      <c r="C20" s="4">
-        <v>4</v>
-      </c>
-      <c r="D20" s="37">
-        <v>44606</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="17" t="s">
+      <c r="D21" s="35"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="14">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4">
+        <v>4</v>
+      </c>
+      <c r="D22" s="35">
+        <v>44607</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="43.2">
+      <c r="A23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="35"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="32">
+        <v>8</v>
+      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="35">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="37"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="15">
-        <v>4</v>
-      </c>
-      <c r="C22" s="4">
-        <v>4</v>
-      </c>
-      <c r="D22" s="37">
-        <v>44607</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="17" t="s">
+      <c r="C25" s="34"/>
+      <c r="D25" s="35"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="14">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4">
+        <v>4</v>
+      </c>
+      <c r="D26" s="35">
+        <v>44609</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="115.2">
+      <c r="A27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="37"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="34">
-        <v>8</v>
-      </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="37">
-        <v>44608</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="37"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="15">
-        <v>4</v>
-      </c>
-      <c r="C26" s="4">
-        <v>4</v>
-      </c>
-      <c r="D26" s="37">
-        <v>44609</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="37"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D27" s="35"/>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="14">
         <v>4</v>
       </c>
       <c r="C28" s="4">
         <v>4</v>
       </c>
-      <c r="D28" s="37">
+      <c r="D28" s="35">
         <v>44610</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="115.2">
       <c r="A29" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="37"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="35"/>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="14">
         <v>4</v>
       </c>
       <c r="C30" s="4">
         <v>4</v>
       </c>
-      <c r="D30" s="37">
+      <c r="D30" s="35">
         <v>44613</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="115.2">
       <c r="A31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="37"/>
-    </row>
-    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B31" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="35"/>
+    </row>
+    <row r="32" spans="1:4" ht="28.8">
       <c r="A32" s="4"/>
-      <c r="B32" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="14">
         <v>8</v>
       </c>
       <c r="C33" s="4">
         <v>0</v>
       </c>
-      <c r="D33" s="37">
+      <c r="D33" s="35">
         <v>44614</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="37"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="35"/>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B35" s="14">
         <v>8</v>
       </c>
       <c r="C35" s="4">
         <v>0</v>
       </c>
-      <c r="D35" s="37">
+      <c r="D35" s="35">
         <v>44615</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="37"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="35"/>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="15">
+      <c r="B37" s="14">
         <v>8</v>
       </c>
       <c r="C37" s="4">
         <v>0</v>
       </c>
-      <c r="D37" s="37">
+      <c r="D37" s="35">
         <v>44616</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="28.8">
       <c r="A38" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="37"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="35"/>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="15">
+      <c r="B39" s="14">
         <v>8</v>
       </c>
       <c r="C39" s="4">
         <v>0</v>
       </c>
-      <c r="D39" s="37">
+      <c r="D39" s="35">
         <v>44617</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="37"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="16"/>
+      <c r="D40" s="35"/>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="15">
+      <c r="B41" s="14">
         <v>8</v>
       </c>
       <c r="C41" s="4">
         <v>0</v>
       </c>
-      <c r="D41" s="37">
+      <c r="D41" s="35">
         <v>44618</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="37"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="16"/>
+      <c r="D42" s="35"/>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="15">
+      <c r="B43" s="14">
         <v>8</v>
       </c>
       <c r="C43" s="4">
         <v>0</v>
       </c>
-      <c r="D43" s="37">
+      <c r="D43" s="35">
         <v>44619</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="57.6">
       <c r="A44" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="37"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="D44" s="35"/>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="15">
+      <c r="B45" s="14">
         <v>8</v>
       </c>
       <c r="C45" s="4">
         <v>0</v>
       </c>
-      <c r="D45" s="37">
+      <c r="D45" s="35">
         <v>44620</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="28.8">
       <c r="A46" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="37"/>
+      <c r="B46" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="16"/>
+      <c r="D46" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -2360,11 +2614,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38664062-6459-4C38-9B3B-3A164047A9A0}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.21875" customWidth="1"/>
     <col min="2" max="2" width="43.109375" customWidth="1"/>
@@ -2372,585 +2626,585 @@
     <col min="4" max="4" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="28.8">
       <c r="A1" s="4"/>
-      <c r="B1" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="36">
         <v>8</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="37">
+      <c r="C2" s="37"/>
+      <c r="D2" s="35">
         <v>44621</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>8</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="35">
         <v>44622</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="43.2">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="37"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="35"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>8</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="35">
         <v>44623</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="43.2">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="37"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="35"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>8</v>
       </c>
       <c r="C8" s="4">
         <v>0</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="35">
         <v>44624</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="43.2">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="37"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="35"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>8</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="35">
         <v>44627</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="57.6">
       <c r="A11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="37"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="35"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>8</v>
       </c>
       <c r="C12" s="4">
         <v>0</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="35">
         <v>44628</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="72">
       <c r="A13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="37"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="35"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <v>8</v>
       </c>
       <c r="C14" s="4">
         <v>0</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="35">
         <v>44629</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="72">
       <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="37"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="35"/>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <v>8</v>
       </c>
       <c r="C16" s="4">
         <v>0</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="35">
         <v>44630</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="72">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="37"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="35"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="14">
         <v>4</v>
       </c>
       <c r="C18" s="4">
         <v>4</v>
       </c>
-      <c r="D18" s="37">
+      <c r="D18" s="35">
         <v>44631</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="28.8">
       <c r="A19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="37"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="35"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="14">
         <v>8</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D20" s="35">
         <v>44634</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="28.8">
       <c r="A21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="37"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="35"/>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="14">
         <v>8</v>
       </c>
       <c r="C22" s="4">
         <v>0</v>
       </c>
-      <c r="D22" s="37">
+      <c r="D22" s="35">
         <v>44635</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="43.2">
       <c r="A23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="37"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="35"/>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="14">
         <v>8</v>
       </c>
       <c r="C24" s="4">
         <v>0</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24" s="35">
         <v>44636</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="43.2">
       <c r="A25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="37"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="35"/>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="14">
         <v>8</v>
       </c>
       <c r="C26" s="4">
         <v>0</v>
       </c>
-      <c r="D26" s="37">
+      <c r="D26" s="35">
         <v>44637</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="28.8">
       <c r="A27" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="37"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="35"/>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="34">
+      <c r="B28" s="32">
         <v>8</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="37">
+      <c r="C28" s="33"/>
+      <c r="D28" s="35">
         <v>44638</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="28.8" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="37"/>
-    </row>
-    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B29" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="35"/>
+    </row>
+    <row r="30" spans="1:4" ht="28.8">
       <c r="A30" s="4"/>
-      <c r="B30" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="14">
         <v>2</v>
       </c>
       <c r="C31" s="4">
         <v>6</v>
       </c>
-      <c r="D31" s="37">
+      <c r="D31" s="35">
         <v>44641</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="57.6">
       <c r="A32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="37"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D32" s="35"/>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="14">
         <v>2</v>
       </c>
       <c r="C33" s="4">
         <v>6</v>
       </c>
-      <c r="D33" s="37">
+      <c r="D33" s="35">
         <v>44642</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="72">
       <c r="A34" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="37"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="35"/>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B35" s="14">
         <v>2</v>
       </c>
       <c r="C35" s="4">
         <v>6</v>
       </c>
-      <c r="D35" s="37">
+      <c r="D35" s="35">
         <v>44643</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="115.2">
       <c r="A36" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" s="37"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="35"/>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="15">
+      <c r="B37" s="14">
         <v>2</v>
       </c>
       <c r="C37" s="4">
         <v>6</v>
       </c>
-      <c r="D37" s="37">
+      <c r="D37" s="35">
         <v>44644</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="129.6">
       <c r="A38" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="17" t="s">
+      <c r="B38" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="35"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="32">
+        <v>8</v>
+      </c>
+      <c r="C39" s="33"/>
+      <c r="D39" s="35">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="33"/>
+      <c r="D40" s="35"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="32">
+        <v>8</v>
+      </c>
+      <c r="C41" s="33"/>
+      <c r="D41" s="35">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="33"/>
+      <c r="D42" s="35"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="14">
+        <v>4</v>
+      </c>
+      <c r="C43" s="4">
+        <v>4</v>
+      </c>
+      <c r="D43" s="35">
+        <v>44649</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="43.2">
+      <c r="A44" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="37"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="34">
+      <c r="C44" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="35"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="32">
         <v>8</v>
       </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="37">
-        <v>44645</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="35"/>
-      <c r="D40" s="37"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41" s="34">
-        <v>8</v>
-      </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="37">
-        <v>44648</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="37"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="15">
-        <v>4</v>
-      </c>
-      <c r="C43" s="4">
-        <v>4</v>
-      </c>
-      <c r="D43" s="37">
-        <v>44649</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" s="17" t="s">
+      <c r="C45" s="33"/>
+      <c r="D45" s="35">
+        <v>44650</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="33"/>
+      <c r="D46" s="35"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="14">
+        <v>4</v>
+      </c>
+      <c r="C47" s="4">
+        <v>4</v>
+      </c>
+      <c r="D47" s="35">
+        <v>44651</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="43.2">
+      <c r="A48" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C48" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D44" s="37"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B45" s="34">
-        <v>8</v>
-      </c>
-      <c r="C45" s="35"/>
-      <c r="D45" s="37">
-        <v>44650</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" s="35"/>
-      <c r="D46" s="37"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" s="15">
-        <v>4</v>
-      </c>
-      <c r="C47" s="4">
-        <v>4</v>
-      </c>
-      <c r="D47" s="37">
-        <v>44651</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D48" s="37"/>
+      <c r="D48" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -2995,13 +3249,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04172E7-821F-44C0-86A6-E4CB79968D23}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.109375" customWidth="1"/>
     <col min="2" max="2" width="39.109375" customWidth="1"/>
@@ -3009,324 +3263,554 @@
     <col min="4" max="4" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="28.8">
       <c r="A1" s="4"/>
-      <c r="B1" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4</v>
+      </c>
+      <c r="D2" s="35">
+        <v>44652</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="43.2">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4">
-        <v>4</v>
-      </c>
-      <c r="D2" s="37">
-        <v>44652</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="D3" s="35"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="35">
+        <v>44655</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="57.6">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="35"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="14">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>4</v>
+      </c>
+      <c r="D6" s="35">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="57.6">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="37"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="15">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4">
-        <v>4</v>
-      </c>
-      <c r="D4" s="37">
-        <v>44655</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="17" t="s">
+      <c r="C7" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="35"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="14">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4</v>
+      </c>
+      <c r="D8" s="35">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="72">
+      <c r="A9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="37"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="15">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4">
-        <v>4</v>
-      </c>
-      <c r="D6" s="37">
-        <v>44656</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="17" t="s">
+      <c r="C9" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="35"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="32">
+        <v>8</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="35">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21.6" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="35"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="14">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4">
+        <v>4</v>
+      </c>
+      <c r="D12" s="35">
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="86.4">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="35"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="14">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4">
+        <v>4</v>
+      </c>
+      <c r="D14" s="35">
+        <v>44662</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="57.6">
+      <c r="A15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="37"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="15">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4">
-        <v>4</v>
-      </c>
-      <c r="D8" s="37">
-        <v>44657</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="37"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="34">
+      <c r="D15" s="35"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="14">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4">
+        <v>4</v>
+      </c>
+      <c r="D16" s="35">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="86.4">
+      <c r="A17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="35"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="14">
+        <v>4</v>
+      </c>
+      <c r="C18" s="4">
+        <v>4</v>
+      </c>
+      <c r="D18" s="35">
+        <v>44664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="100.8">
+      <c r="A19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="35"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="14">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4">
+        <v>4</v>
+      </c>
+      <c r="D20" s="35">
+        <v>44665</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="72">
+      <c r="A21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="35"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="32">
         <v>8</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="37">
-        <v>44658</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="37"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="15">
-        <v>4</v>
-      </c>
-      <c r="C12" s="4">
-        <v>4</v>
-      </c>
-      <c r="D12" s="37">
-        <v>44659</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="37"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="15">
-        <v>4</v>
-      </c>
-      <c r="C14" s="4">
-        <v>4</v>
-      </c>
-      <c r="D14" s="37">
-        <v>44662</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D15" s="37"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="15">
-        <v>4</v>
-      </c>
-      <c r="C16" s="4">
-        <v>4</v>
-      </c>
-      <c r="D16" s="37">
-        <v>44663</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="37"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="15">
-        <v>4</v>
-      </c>
-      <c r="C18" s="4">
-        <v>4</v>
-      </c>
-      <c r="D18" s="37">
-        <v>44664</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" s="37"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="15">
-        <v>4</v>
-      </c>
-      <c r="C20" s="4">
-        <v>4</v>
-      </c>
-      <c r="D20" s="37">
-        <v>44665</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="17" t="s">
+      <c r="C22" s="33"/>
+      <c r="D22" s="38">
+        <v>44666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="33"/>
+      <c r="D23" s="39"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="14">
+        <v>4</v>
+      </c>
+      <c r="C24" s="4">
+        <v>4</v>
+      </c>
+      <c r="D24" s="38">
+        <v>44669</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="86.4">
+      <c r="A25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="37"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="34">
+      <c r="D25" s="39"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="14">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4">
+        <v>4</v>
+      </c>
+      <c r="D26" s="38">
+        <v>44670</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="72">
+      <c r="A27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="39"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="14">
+        <v>4</v>
+      </c>
+      <c r="C28" s="4">
+        <v>4</v>
+      </c>
+      <c r="D28" s="38">
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="86.4">
+      <c r="A29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="39"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="32">
         <v>8</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="40">
-        <v>44666</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="41"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="15">
-        <v>4</v>
-      </c>
-      <c r="C24" s="4">
-        <v>4</v>
-      </c>
-      <c r="D24" s="40">
-        <v>44669</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" s="41"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="38">
+        <v>44672</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="33"/>
+      <c r="D31" s="39"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="32">
+        <v>8</v>
+      </c>
+      <c r="C32" s="33"/>
+      <c r="D32" s="38">
+        <v>44673</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="43.2" customHeight="1">
+      <c r="A33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="34"/>
+      <c r="D33" s="39"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="32">
+        <v>8</v>
+      </c>
+      <c r="C34" s="33"/>
+      <c r="D34" s="38">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="28.8" customHeight="1">
+      <c r="A35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="34"/>
+      <c r="D35" s="39"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="32">
+        <v>8</v>
+      </c>
+      <c r="C36" s="33"/>
+      <c r="D36" s="38">
+        <v>44677</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="28.8" customHeight="1">
+      <c r="A37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="34"/>
+      <c r="D37" s="39"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="14">
+        <v>4</v>
+      </c>
+      <c r="C38" s="4">
+        <v>4</v>
+      </c>
+      <c r="D38" s="38">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="57.6">
+      <c r="A39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" s="39"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="14">
+        <v>4</v>
+      </c>
+      <c r="C40" s="4">
+        <v>4</v>
+      </c>
+      <c r="D40" s="38">
+        <v>44679</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="57.6">
+      <c r="A41" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" s="39"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="14">
+        <v>4</v>
+      </c>
+      <c r="C42" s="4">
+        <v>4</v>
+      </c>
+      <c r="D42" s="38">
+        <v>44680</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="57.6">
+      <c r="A43" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="33">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
@@ -3343,27 +3827,133 @@
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="B31:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9B0F83-731C-4489-9355-90BBF2B43BCF}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="35.5546875" customWidth="1"/>
+    <col min="3" max="3" width="35.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="28.8">
+      <c r="A1" s="4"/>
+      <c r="B1" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4</v>
+      </c>
+      <c r="D2" s="35">
+        <v>44683</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="43.2">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="35"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="32">
+        <v>8</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="35">
+        <v>44684</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="14">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>4</v>
+      </c>
+      <c r="D6" s="35">
+        <v>44685</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="43.2">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010071FEBA6E59F1114FA1DBADB5A19192F5" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="68d738ba6abfae8d013aeb1fb6af46ea">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="33e4e33d-ffb4-4a17-9b1b-478bea8d3710" xmlns:ns4="9120eac6-4b18-4abe-a762-bd257214a810" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dae310c37f0a31cfa956236035f6b2a5" ns3:_="" ns4:_="">
     <xsd:import namespace="33e4e33d-ffb4-4a17-9b1b-478bea8d3710"/>
@@ -3572,7 +4162,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{248AF9C3-A2BF-4479-B7A8-B2BDE179A582}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="33e4e33d-ffb4-4a17-9b1b-478bea8d3710"/>
+    <ds:schemaRef ds:uri="9120eac6-4b18-4abe-a762-bd257214a810"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD282290-682D-4720-AA66-05DB34A587D9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -3589,29 +4213,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81EA1DDF-0A41-4AEA-8848-5B89771E278B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{248AF9C3-A2BF-4479-B7A8-B2BDE179A582}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="33e4e33d-ffb4-4a17-9b1b-478bea8d3710"/>
-    <ds:schemaRef ds:uri="9120eac6-4b18-4abe-a762-bd257214a810"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/rishabh_timesheet.xlsx
+++ b/rishabh_timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55683\OneDrive - ICF\Desktop\timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D456E6-419E-4D81-A911-764D822D8B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A396B223-4F67-47C8-AD3E-CC37CAF0FC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{91D1710D-DA54-4467-A82A-013A3D0A24E4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="175">
   <si>
     <t>CODE</t>
   </si>
@@ -529,11 +529,6 @@
 Completed the code work, need to test only.</t>
   </si>
   <si>
-    <t xml:space="preserve">Project: Crisil
-Task: CR 
-Task Detail: </t>
-  </si>
-  <si>
     <t>Learn how to do validation in AEM
 Exploring full CRISIL projects</t>
   </si>
@@ -567,12 +562,6 @@
     <t>Learning the concept of Metadata creation and overriding property of metadata</t>
   </si>
   <si>
-    <t>Demo of project</t>
-  </si>
-  <si>
-    <t>Demo of AEM concept</t>
-  </si>
-  <si>
     <t>Project: Crisil
 Task: CR 
 Task Detail: Working on Archive data development task</t>
@@ -660,6 +649,87 @@
   </si>
   <si>
     <t>019999.0.07509</t>
+  </si>
+  <si>
+    <t>Required instead of using general indirect use this it will show that you will have some training for learning and development</t>
+  </si>
+  <si>
+    <t>015041.3.834.91</t>
+  </si>
+  <si>
+    <t>SAFe Training Code</t>
+  </si>
+  <si>
+    <t>SAFe Training
+015041.3.834.91</t>
+  </si>
+  <si>
+    <t>Training Attentive
+015012.0.07509</t>
+  </si>
+  <si>
+    <t>I prepare and deliver my presentation on the AEM demo and walked through the CRISIL website.</t>
+  </si>
+  <si>
+    <t>Learning Servlet concept in Udemy.
+I cover 4 hr in this course duration is 157 hr.</t>
+  </si>
+  <si>
+    <t>Learning the Query Builder API concept in AEM.</t>
+  </si>
+  <si>
+    <t>I have one meeting with my reporting manager Ginu for goal setting and learning the Query Builder API concept in AEM.</t>
+  </si>
+  <si>
+    <t>SAFe Training from 4 May to 10 May 2022.</t>
+  </si>
+  <si>
+    <t>Doing Shell Scripting training in Udemy. It's a 5.5 hr course. I cover 2 hr in this course.</t>
+  </si>
+  <si>
+    <t>Learning the Query Builder API concept in AEM.
+Reinstalling AEM instance because Instance got crashed and giving plugins error</t>
+  </si>
+  <si>
+    <t>ADOBE Sales Accreditation Done.</t>
+  </si>
+  <si>
+    <t>Learning the Query Builder API concept in AEM.
+Testing my archive data task locally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADOBE Sales Accreditation Doing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payback
+</t>
+  </si>
+  <si>
+    <t>AEM Training in ADOBE done.
+Learning Spring Boot Rest API call in Udemy</t>
+  </si>
+  <si>
+    <t>Learning the AEM OSGI configuration.</t>
+  </si>
+  <si>
+    <t>Learning MicroServices concept in Udemy.
+I cover 4 hr in this course, duration of the course is 157 hr.</t>
+  </si>
+  <si>
+    <t>I set up my local instances for my Payback project.
+I install java 11 on my local machine
+Project setup done</t>
+  </si>
+  <si>
+    <t>I install Maven 3.8.2 version and setup in my machine
+learn how to use maven.</t>
+  </si>
+  <si>
+    <t>Learning MicroServices course in Udemy.</t>
+  </si>
+  <si>
+    <t>PAYBACK PROJECT CODE</t>
   </si>
 </sst>
 </file>
@@ -669,7 +739,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]dd\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -708,6 +778,17 @@
       <color theme="1"/>
       <name val="Helvetica Neue"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -717,7 +798,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -803,11 +884,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -875,13 +967,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -896,10 +982,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -911,14 +1024,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -926,16 +1039,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1252,19 +1356,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8568C51-A3B1-4ED9-851C-00FAAEFAC243}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" style="23" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" style="19" customWidth="1"/>
     <col min="2" max="2" width="31.44140625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="24.45" customHeight="1">
+    <row r="1" spans="1:4" ht="24.45" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -1272,7 +1376,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15">
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -1280,7 +1384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1288,15 +1392,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="29">
         <v>15001</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -1304,7 +1408,7 @@
         <v>15002</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
@@ -1312,140 +1416,156 @@
         <v>15003</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="29">
+        <v>125</v>
+      </c>
+      <c r="B7" s="27">
         <v>15006</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" s="29">
+        <v>126</v>
+      </c>
+      <c r="B8" s="27">
         <v>15009</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1">
-      <c r="A12" s="42" t="s">
+    <row r="11" spans="1:4" ht="15">
+      <c r="A11" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1">
+      <c r="A13" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1">
+      <c r="A14" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="41" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1">
-      <c r="A13" s="42" t="s">
+      <c r="B14" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="D14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1">
+      <c r="A15" s="35" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1">
-      <c r="A14" s="42" t="s">
+      <c r="B15" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="B14" s="41" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="15" thickBot="1">
+      <c r="A16" s="35" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1">
-      <c r="A15" s="42" t="s">
+      <c r="B16" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="B15" s="41" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="15" thickBot="1">
+      <c r="A17" s="35" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1">
-      <c r="A16" s="42" t="s">
+      <c r="B17" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="B16" s="41" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="15" thickBot="1">
+      <c r="A18" s="35" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1">
-      <c r="A17" s="42" t="s">
+      <c r="B18" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="B17" s="41" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="15" thickBot="1">
+      <c r="A19" s="35" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1">
-      <c r="A18" s="42" t="s">
+      <c r="B19" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="B18" s="41" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="15" thickBot="1">
+      <c r="A20" s="35" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1">
-      <c r="A19" s="42" t="s">
+      <c r="B20" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="B19" s="41" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="15" thickBot="1">
+      <c r="A21" s="35" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1">
-      <c r="A20" s="42" t="s">
+      <c r="B21" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="41" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="15" thickBot="1">
+      <c r="A22" s="35" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1">
-      <c r="A21" s="42" t="s">
+      <c r="B22" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="B21" s="41" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="15" thickBot="1">
+      <c r="A23" s="35" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1">
-      <c r="A22" s="42" t="s">
+      <c r="B23" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="B22" s="41" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="15" thickBot="1">
+      <c r="A24" s="35" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" thickBot="1">
-      <c r="A23" s="42" t="s">
+      <c r="B24" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="B23" s="41" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15" thickBot="1">
-      <c r="A24" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>154</v>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="19" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -1460,7 +1580,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1499,7 +1619,7 @@
       <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="36">
         <v>44564</v>
       </c>
       <c r="E2"/>
@@ -1515,7 +1635,7 @@
       <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="31"/>
+      <c r="D3" s="37"/>
       <c r="E3"/>
       <c r="F3"/>
     </row>
@@ -1529,7 +1649,7 @@
       <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="36">
         <v>44565</v>
       </c>
       <c r="E4"/>
@@ -1545,7 +1665,7 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="31"/>
+      <c r="D5" s="37"/>
       <c r="E5"/>
       <c r="F5"/>
     </row>
@@ -1559,7 +1679,7 @@
       <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="36">
         <v>44566</v>
       </c>
       <c r="E6"/>
@@ -1575,7 +1695,7 @@
       <c r="C7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="31"/>
+      <c r="D7" s="37"/>
       <c r="E7"/>
       <c r="F7"/>
     </row>
@@ -1589,7 +1709,7 @@
       <c r="C8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="36">
         <v>44567</v>
       </c>
       <c r="E8" s="20"/>
@@ -1605,7 +1725,7 @@
       <c r="C9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="31"/>
+      <c r="D9" s="37"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
     </row>
@@ -1619,7 +1739,7 @@
       <c r="C10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="36">
         <v>44568</v>
       </c>
       <c r="E10" s="20"/>
@@ -1635,7 +1755,7 @@
       <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="31"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
     </row>
@@ -1665,7 +1785,7 @@
       <c r="C13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="36">
         <v>44572</v>
       </c>
       <c r="E13" s="20"/>
@@ -1681,7 +1801,7 @@
       <c r="C14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="30"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
     </row>
@@ -1695,7 +1815,7 @@
       <c r="C15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="36">
         <v>44573</v>
       </c>
       <c r="E15" s="20"/>
@@ -1711,7 +1831,7 @@
       <c r="C16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="30"/>
+      <c r="D16" s="36"/>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
     </row>
@@ -1741,7 +1861,7 @@
       <c r="C18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="36">
         <v>44578</v>
       </c>
       <c r="E18" s="20"/>
@@ -1757,7 +1877,7 @@
       <c r="C19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="30"/>
+      <c r="D19" s="36"/>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
     </row>
@@ -1787,7 +1907,7 @@
       <c r="C21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="36">
         <v>44580</v>
       </c>
     </row>
@@ -1801,7 +1921,7 @@
       <c r="C22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="30"/>
+      <c r="D22" s="36"/>
     </row>
     <row r="23" spans="1:6" ht="57.6">
       <c r="A23" s="4" t="s">
@@ -1813,7 +1933,7 @@
       <c r="C23" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="30">
+      <c r="D23" s="36">
         <v>44581</v>
       </c>
     </row>
@@ -1827,7 +1947,7 @@
       <c r="C24" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="30"/>
+      <c r="D24" s="36"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="4" t="s">
@@ -1867,7 +1987,7 @@
       <c r="C27" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="36">
         <v>44586</v>
       </c>
     </row>
@@ -1881,7 +2001,7 @@
       <c r="C28" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="30"/>
+      <c r="D28" s="36"/>
     </row>
     <row r="29" spans="1:6" ht="129.6">
       <c r="A29" s="4" t="s">
@@ -1893,7 +2013,7 @@
       <c r="C29" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D29" s="36">
         <v>44588</v>
       </c>
     </row>
@@ -1907,7 +2027,7 @@
       <c r="C30" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="30"/>
+      <c r="D30" s="36"/>
     </row>
     <row r="31" spans="1:6" ht="86.4">
       <c r="A31" s="4" t="s">
@@ -1919,7 +2039,7 @@
       <c r="C31" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="30">
+      <c r="D31" s="36">
         <v>44589</v>
       </c>
     </row>
@@ -1933,7 +2053,7 @@
       <c r="C32" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="30"/>
+      <c r="D32" s="36"/>
     </row>
     <row r="33" spans="1:4" ht="72">
       <c r="A33" s="4" t="s">
@@ -1945,7 +2065,7 @@
       <c r="C33" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="30">
+      <c r="D33" s="36">
         <v>44592</v>
       </c>
     </row>
@@ -1959,10 +2079,16 @@
       <c r="C34" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="30"/>
+      <c r="D34" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="D13:D14"/>
@@ -1971,12 +2097,6 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1988,8 +2108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD25E0C-56B4-49C9-81FC-B33B23DE8FF6}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2022,7 +2142,7 @@
       <c r="C2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="38">
         <v>44593</v>
       </c>
     </row>
@@ -2036,7 +2156,7 @@
       <c r="C3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="35"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
@@ -2048,7 +2168,7 @@
       <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="38">
         <v>44594</v>
       </c>
     </row>
@@ -2062,7 +2182,7 @@
       <c r="C5" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="38"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
@@ -2074,7 +2194,7 @@
       <c r="C6" s="4">
         <v>0</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="38">
         <v>44595</v>
       </c>
     </row>
@@ -2088,7 +2208,7 @@
       <c r="C7" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="35"/>
+      <c r="D7" s="38"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
@@ -2100,7 +2220,7 @@
       <c r="C8" s="4">
         <v>0</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="38">
         <v>44596</v>
       </c>
     </row>
@@ -2114,7 +2234,7 @@
       <c r="C9" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="35"/>
+      <c r="D9" s="38"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
@@ -2126,7 +2246,7 @@
       <c r="C10" s="4">
         <v>4</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="38">
         <v>44599</v>
       </c>
     </row>
@@ -2140,7 +2260,7 @@
       <c r="C11" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="35"/>
+      <c r="D11" s="38"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
@@ -2152,7 +2272,7 @@
       <c r="C12" s="4">
         <v>4</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="38">
         <v>44600</v>
       </c>
     </row>
@@ -2166,7 +2286,7 @@
       <c r="C13" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="35"/>
+      <c r="D13" s="38"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
@@ -2178,7 +2298,7 @@
       <c r="C14" s="4">
         <v>4</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="38">
         <v>44601</v>
       </c>
     </row>
@@ -2192,7 +2312,7 @@
       <c r="C15" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="35"/>
+      <c r="D15" s="38"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
@@ -2204,7 +2324,7 @@
       <c r="C16" s="4">
         <v>4</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="38">
         <v>44602</v>
       </c>
     </row>
@@ -2218,7 +2338,7 @@
       <c r="C17" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="35"/>
+      <c r="D17" s="38"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
@@ -2230,7 +2350,7 @@
       <c r="C18" s="4">
         <v>4</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="38">
         <v>44603</v>
       </c>
     </row>
@@ -2244,7 +2364,7 @@
       <c r="C19" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="35"/>
+      <c r="D19" s="38"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
@@ -2256,7 +2376,7 @@
       <c r="C20" s="4">
         <v>4</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="38">
         <v>44606</v>
       </c>
     </row>
@@ -2270,7 +2390,7 @@
       <c r="C21" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="35"/>
+      <c r="D21" s="38"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
@@ -2282,7 +2402,7 @@
       <c r="C22" s="4">
         <v>4</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="38">
         <v>44607</v>
       </c>
     </row>
@@ -2296,17 +2416,17 @@
       <c r="C23" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="35"/>
+      <c r="D23" s="38"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="32">
+      <c r="B24" s="39">
         <v>8</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="35">
+      <c r="C24" s="40"/>
+      <c r="D24" s="38">
         <v>44608</v>
       </c>
     </row>
@@ -2314,11 +2434,11 @@
       <c r="A25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="35"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="38"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="4" t="s">
@@ -2330,7 +2450,7 @@
       <c r="C26" s="4">
         <v>4</v>
       </c>
-      <c r="D26" s="35">
+      <c r="D26" s="38">
         <v>44609</v>
       </c>
     </row>
@@ -2344,7 +2464,7 @@
       <c r="C27" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="35"/>
+      <c r="D27" s="38"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
@@ -2356,7 +2476,7 @@
       <c r="C28" s="4">
         <v>4</v>
       </c>
-      <c r="D28" s="35">
+      <c r="D28" s="38">
         <v>44610</v>
       </c>
     </row>
@@ -2370,7 +2490,7 @@
       <c r="C29" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="35"/>
+      <c r="D29" s="38"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
@@ -2382,7 +2502,7 @@
       <c r="C30" s="4">
         <v>4</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="38">
         <v>44613</v>
       </c>
     </row>
@@ -2396,7 +2516,7 @@
       <c r="C31" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="35"/>
+      <c r="D31" s="38"/>
     </row>
     <row r="32" spans="1:4" ht="28.8">
       <c r="A32" s="4"/>
@@ -2420,7 +2540,7 @@
       <c r="C33" s="4">
         <v>0</v>
       </c>
-      <c r="D33" s="35">
+      <c r="D33" s="38">
         <v>44614</v>
       </c>
     </row>
@@ -2432,7 +2552,7 @@
         <v>62</v>
       </c>
       <c r="C34" s="16"/>
-      <c r="D34" s="35"/>
+      <c r="D34" s="38"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
@@ -2444,7 +2564,7 @@
       <c r="C35" s="4">
         <v>0</v>
       </c>
-      <c r="D35" s="35">
+      <c r="D35" s="38">
         <v>44615</v>
       </c>
     </row>
@@ -2456,7 +2576,7 @@
         <v>63</v>
       </c>
       <c r="C36" s="16"/>
-      <c r="D36" s="35"/>
+      <c r="D36" s="38"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
@@ -2468,7 +2588,7 @@
       <c r="C37" s="4">
         <v>0</v>
       </c>
-      <c r="D37" s="35">
+      <c r="D37" s="38">
         <v>44616</v>
       </c>
     </row>
@@ -2480,7 +2600,7 @@
         <v>65</v>
       </c>
       <c r="C38" s="16"/>
-      <c r="D38" s="35"/>
+      <c r="D38" s="38"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
@@ -2492,7 +2612,7 @@
       <c r="C39" s="4">
         <v>0</v>
       </c>
-      <c r="D39" s="35">
+      <c r="D39" s="38">
         <v>44617</v>
       </c>
     </row>
@@ -2504,7 +2624,7 @@
         <v>66</v>
       </c>
       <c r="C40" s="16"/>
-      <c r="D40" s="35"/>
+      <c r="D40" s="38"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
@@ -2516,7 +2636,7 @@
       <c r="C41" s="4">
         <v>0</v>
       </c>
-      <c r="D41" s="35">
+      <c r="D41" s="38">
         <v>44618</v>
       </c>
     </row>
@@ -2528,7 +2648,7 @@
         <v>66</v>
       </c>
       <c r="C42" s="16"/>
-      <c r="D42" s="35"/>
+      <c r="D42" s="38"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
@@ -2540,7 +2660,7 @@
       <c r="C43" s="4">
         <v>0</v>
       </c>
-      <c r="D43" s="35">
+      <c r="D43" s="38">
         <v>44619</v>
       </c>
     </row>
@@ -2552,7 +2672,7 @@
         <v>67</v>
       </c>
       <c r="C44" s="16"/>
-      <c r="D44" s="35"/>
+      <c r="D44" s="38"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="4" t="s">
@@ -2564,7 +2684,7 @@
       <c r="C45" s="4">
         <v>0</v>
       </c>
-      <c r="D45" s="35">
+      <c r="D45" s="38">
         <v>44620</v>
       </c>
     </row>
@@ -2576,10 +2696,22 @@
         <v>68</v>
       </c>
       <c r="C46" s="16"/>
-      <c r="D46" s="35"/>
+      <c r="D46" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="D39:D40"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="D43:D44"/>
@@ -2592,18 +2724,6 @@
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2615,7 +2735,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2642,11 +2762,11 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="42">
         <v>8</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="35">
+      <c r="C2" s="43"/>
+      <c r="D2" s="38">
         <v>44621</v>
       </c>
     </row>
@@ -2654,11 +2774,11 @@
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
@@ -2670,7 +2790,7 @@
       <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="38">
         <v>44622</v>
       </c>
     </row>
@@ -2682,7 +2802,7 @@
         <v>69</v>
       </c>
       <c r="C5" s="16"/>
-      <c r="D5" s="35"/>
+      <c r="D5" s="38"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
@@ -2694,7 +2814,7 @@
       <c r="C6" s="4">
         <v>0</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="38">
         <v>44623</v>
       </c>
     </row>
@@ -2706,7 +2826,7 @@
         <v>70</v>
       </c>
       <c r="C7" s="16"/>
-      <c r="D7" s="35"/>
+      <c r="D7" s="38"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
@@ -2718,7 +2838,7 @@
       <c r="C8" s="4">
         <v>0</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="38">
         <v>44624</v>
       </c>
     </row>
@@ -2730,7 +2850,7 @@
         <v>71</v>
       </c>
       <c r="C9" s="16"/>
-      <c r="D9" s="35"/>
+      <c r="D9" s="38"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
@@ -2742,7 +2862,7 @@
       <c r="C10" s="4">
         <v>0</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="38">
         <v>44627</v>
       </c>
     </row>
@@ -2754,7 +2874,7 @@
         <v>75</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="35"/>
+      <c r="D11" s="38"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
@@ -2766,7 +2886,7 @@
       <c r="C12" s="4">
         <v>0</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="38">
         <v>44628</v>
       </c>
     </row>
@@ -2778,7 +2898,7 @@
         <v>78</v>
       </c>
       <c r="C13" s="16"/>
-      <c r="D13" s="35"/>
+      <c r="D13" s="38"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
@@ -2790,7 +2910,7 @@
       <c r="C14" s="4">
         <v>0</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="38">
         <v>44629</v>
       </c>
     </row>
@@ -2802,7 +2922,7 @@
         <v>77</v>
       </c>
       <c r="C15" s="16"/>
-      <c r="D15" s="35"/>
+      <c r="D15" s="38"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
@@ -2814,7 +2934,7 @@
       <c r="C16" s="4">
         <v>0</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="38">
         <v>44630</v>
       </c>
     </row>
@@ -2826,7 +2946,7 @@
         <v>76</v>
       </c>
       <c r="C17" s="16"/>
-      <c r="D17" s="35"/>
+      <c r="D17" s="38"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
@@ -2838,7 +2958,7 @@
       <c r="C18" s="4">
         <v>4</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="38">
         <v>44631</v>
       </c>
     </row>
@@ -2852,7 +2972,7 @@
       <c r="C19" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="35"/>
+      <c r="D19" s="38"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
@@ -2864,7 +2984,7 @@
       <c r="C20" s="4">
         <v>0</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="38">
         <v>44634</v>
       </c>
     </row>
@@ -2876,7 +2996,7 @@
         <v>74</v>
       </c>
       <c r="C21" s="16"/>
-      <c r="D21" s="35"/>
+      <c r="D21" s="38"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
@@ -2888,7 +3008,7 @@
       <c r="C22" s="4">
         <v>0</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="38">
         <v>44635</v>
       </c>
     </row>
@@ -2900,7 +3020,7 @@
         <v>79</v>
       </c>
       <c r="C23" s="16"/>
-      <c r="D23" s="35"/>
+      <c r="D23" s="38"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
@@ -2912,7 +3032,7 @@
       <c r="C24" s="4">
         <v>0</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="38">
         <v>44636</v>
       </c>
     </row>
@@ -2924,7 +3044,7 @@
         <v>81</v>
       </c>
       <c r="C25" s="16"/>
-      <c r="D25" s="35"/>
+      <c r="D25" s="38"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="4" t="s">
@@ -2936,7 +3056,7 @@
       <c r="C26" s="4">
         <v>0</v>
       </c>
-      <c r="D26" s="35">
+      <c r="D26" s="38">
         <v>44637</v>
       </c>
     </row>
@@ -2948,17 +3068,17 @@
         <v>82</v>
       </c>
       <c r="C27" s="16"/>
-      <c r="D27" s="35"/>
+      <c r="D27" s="38"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="32">
+      <c r="B28" s="39">
         <v>8</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="35">
+      <c r="C28" s="40"/>
+      <c r="D28" s="38">
         <v>44638</v>
       </c>
     </row>
@@ -2966,11 +3086,11 @@
       <c r="A29" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="35"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="38"/>
     </row>
     <row r="30" spans="1:4" ht="28.8">
       <c r="A30" s="4"/>
@@ -2980,7 +3100,7 @@
       <c r="C30" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="24" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2994,7 +3114,7 @@
       <c r="C31" s="4">
         <v>6</v>
       </c>
-      <c r="D31" s="35">
+      <c r="D31" s="38">
         <v>44641</v>
       </c>
     </row>
@@ -3008,7 +3128,7 @@
       <c r="C32" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="35"/>
+      <c r="D32" s="38"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
@@ -3020,7 +3140,7 @@
       <c r="C33" s="4">
         <v>6</v>
       </c>
-      <c r="D33" s="35">
+      <c r="D33" s="38">
         <v>44642</v>
       </c>
     </row>
@@ -3034,7 +3154,7 @@
       <c r="C34" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="35"/>
+      <c r="D34" s="38"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
@@ -3046,7 +3166,7 @@
       <c r="C35" s="4">
         <v>6</v>
       </c>
-      <c r="D35" s="35">
+      <c r="D35" s="38">
         <v>44643</v>
       </c>
     </row>
@@ -3060,7 +3180,7 @@
       <c r="C36" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="35"/>
+      <c r="D36" s="38"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
@@ -3072,7 +3192,7 @@
       <c r="C37" s="4">
         <v>6</v>
       </c>
-      <c r="D37" s="35">
+      <c r="D37" s="38">
         <v>44644</v>
       </c>
     </row>
@@ -3086,17 +3206,17 @@
       <c r="C38" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D38" s="35"/>
+      <c r="D38" s="38"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="32">
+      <c r="B39" s="39">
         <v>8</v>
       </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="35">
+      <c r="C39" s="40"/>
+      <c r="D39" s="38">
         <v>44645</v>
       </c>
     </row>
@@ -3104,21 +3224,21 @@
       <c r="A40" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="35"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="38"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="32">
+      <c r="B41" s="39">
         <v>8</v>
       </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="35">
+      <c r="C41" s="40"/>
+      <c r="D41" s="38">
         <v>44648</v>
       </c>
     </row>
@@ -3126,11 +3246,11 @@
       <c r="A42" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="35"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="38"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
@@ -3142,7 +3262,7 @@
       <c r="C43" s="4">
         <v>4</v>
       </c>
-      <c r="D43" s="35">
+      <c r="D43" s="38">
         <v>44649</v>
       </c>
     </row>
@@ -3156,17 +3276,17 @@
       <c r="C44" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D44" s="35"/>
+      <c r="D44" s="38"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="32">
+      <c r="B45" s="39">
         <v>8</v>
       </c>
-      <c r="C45" s="33"/>
-      <c r="D45" s="35">
+      <c r="C45" s="40"/>
+      <c r="D45" s="38">
         <v>44650</v>
       </c>
     </row>
@@ -3174,11 +3294,11 @@
       <c r="A46" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="35"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="38"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
@@ -3190,7 +3310,7 @@
       <c r="C47" s="4">
         <v>4</v>
       </c>
-      <c r="D47" s="35">
+      <c r="D47" s="38">
         <v>44651</v>
       </c>
     </row>
@@ -3204,29 +3324,15 @@
       <c r="C48" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D48" s="35"/>
+      <c r="D48" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D47:D48"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="B42:C42"/>
@@ -3236,11 +3342,25 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:D40"/>
     <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3251,8 +3371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04172E7-821F-44C0-86A6-E4CB79968D23}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3271,7 +3391,7 @@
       <c r="C1" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="24" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3285,7 +3405,7 @@
       <c r="C2" s="4">
         <v>4</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="38">
         <v>44652</v>
       </c>
     </row>
@@ -3299,7 +3419,7 @@
       <c r="C3" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="35"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
@@ -3311,7 +3431,7 @@
       <c r="C4" s="4">
         <v>4</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="38">
         <v>44655</v>
       </c>
     </row>
@@ -3325,7 +3445,7 @@
       <c r="C5" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="38"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
@@ -3337,7 +3457,7 @@
       <c r="C6" s="4">
         <v>4</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="38">
         <v>44656</v>
       </c>
     </row>
@@ -3351,7 +3471,7 @@
       <c r="C7" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="35"/>
+      <c r="D7" s="38"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
@@ -3363,7 +3483,7 @@
       <c r="C8" s="4">
         <v>4</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="38">
         <v>44657</v>
       </c>
     </row>
@@ -3377,17 +3497,17 @@
       <c r="C9" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="35"/>
+      <c r="D9" s="38"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="39">
         <v>8</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="35">
+      <c r="C10" s="40"/>
+      <c r="D10" s="38">
         <v>44658</v>
       </c>
     </row>
@@ -3395,11 +3515,11 @@
       <c r="A11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="35"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="38"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
@@ -3411,7 +3531,7 @@
       <c r="C12" s="4">
         <v>4</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="38">
         <v>44659</v>
       </c>
     </row>
@@ -3425,7 +3545,7 @@
       <c r="C13" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="35"/>
+      <c r="D13" s="38"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
@@ -3437,7 +3557,7 @@
       <c r="C14" s="4">
         <v>4</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="38">
         <v>44662</v>
       </c>
     </row>
@@ -3451,7 +3571,7 @@
       <c r="C15" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="35"/>
+      <c r="D15" s="38"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
@@ -3463,7 +3583,7 @@
       <c r="C16" s="4">
         <v>4</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="38">
         <v>44663</v>
       </c>
     </row>
@@ -3477,7 +3597,7 @@
       <c r="C17" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="35"/>
+      <c r="D17" s="38"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
@@ -3489,7 +3609,7 @@
       <c r="C18" s="4">
         <v>4</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="38">
         <v>44664</v>
       </c>
     </row>
@@ -3503,7 +3623,7 @@
       <c r="C19" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="35"/>
+      <c r="D19" s="38"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
@@ -3515,7 +3635,7 @@
       <c r="C20" s="4">
         <v>4</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="38">
         <v>44665</v>
       </c>
     </row>
@@ -3529,17 +3649,17 @@
       <c r="C21" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="35"/>
+      <c r="D21" s="38"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="32">
+      <c r="B22" s="39">
         <v>8</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="38">
+      <c r="C22" s="40"/>
+      <c r="D22" s="45">
         <v>44666</v>
       </c>
     </row>
@@ -3547,11 +3667,11 @@
       <c r="A23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="39"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="46"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
@@ -3563,7 +3683,7 @@
       <c r="C24" s="4">
         <v>4</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="45">
         <v>44669</v>
       </c>
     </row>
@@ -3577,7 +3697,7 @@
       <c r="C25" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D25" s="39"/>
+      <c r="D25" s="46"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="4" t="s">
@@ -3589,7 +3709,7 @@
       <c r="C26" s="4">
         <v>4</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="45">
         <v>44670</v>
       </c>
     </row>
@@ -3603,7 +3723,7 @@
       <c r="C27" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="39"/>
+      <c r="D27" s="46"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
@@ -3615,7 +3735,7 @@
       <c r="C28" s="4">
         <v>4</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="45">
         <v>44671</v>
       </c>
     </row>
@@ -3624,22 +3744,22 @@
         <v>2</v>
       </c>
       <c r="B29" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D29" s="39"/>
+      <c r="D29" s="46"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="32">
+      <c r="B30" s="39">
         <v>8</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="38">
+      <c r="C30" s="40"/>
+      <c r="D30" s="45">
         <v>44672</v>
       </c>
     </row>
@@ -3647,21 +3767,21 @@
       <c r="A31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="39"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="46"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="32">
+      <c r="B32" s="39">
         <v>8</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="38">
+      <c r="C32" s="40"/>
+      <c r="D32" s="45">
         <v>44673</v>
       </c>
     </row>
@@ -3669,21 +3789,21 @@
       <c r="A33" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="39"/>
+      <c r="B33" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="41"/>
+      <c r="D33" s="46"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="32">
+      <c r="B34" s="39">
         <v>8</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="38">
+      <c r="C34" s="40"/>
+      <c r="D34" s="45">
         <v>44676</v>
       </c>
     </row>
@@ -3691,21 +3811,21 @@
       <c r="A35" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="34"/>
-      <c r="D35" s="39"/>
+      <c r="B35" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="41"/>
+      <c r="D35" s="46"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="32">
+      <c r="B36" s="39">
         <v>8</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="38">
+      <c r="C36" s="40"/>
+      <c r="D36" s="45">
         <v>44677</v>
       </c>
     </row>
@@ -3713,11 +3833,11 @@
       <c r="A37" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="39"/>
+      <c r="B37" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="41"/>
+      <c r="D37" s="46"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="4" t="s">
@@ -3729,7 +3849,7 @@
       <c r="C38" s="4">
         <v>4</v>
       </c>
-      <c r="D38" s="38">
+      <c r="D38" s="45">
         <v>44678</v>
       </c>
     </row>
@@ -3738,12 +3858,12 @@
         <v>2</v>
       </c>
       <c r="B39" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C39" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D39" s="39"/>
+      <c r="D39" s="46"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="4" t="s">
@@ -3755,7 +3875,7 @@
       <c r="C40" s="4">
         <v>4</v>
       </c>
-      <c r="D40" s="38">
+      <c r="D40" s="45">
         <v>44679</v>
       </c>
     </row>
@@ -3764,12 +3884,12 @@
         <v>2</v>
       </c>
       <c r="B41" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="D41" s="39"/>
+      <c r="D41" s="46"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="4" t="s">
@@ -3781,7 +3901,7 @@
       <c r="C42" s="4">
         <v>4</v>
       </c>
-      <c r="D42" s="38">
+      <c r="D42" s="45">
         <v>44680</v>
       </c>
     </row>
@@ -3790,15 +3910,36 @@
         <v>2</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="D43" s="39"/>
+        <v>123</v>
+      </c>
+      <c r="D43" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D36:D37"/>
     <mergeCell ref="D38:D39"/>
@@ -3811,27 +3952,6 @@
     <mergeCell ref="D34:D35"/>
     <mergeCell ref="D32:D33"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="B31:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3840,33 +3960,36 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9B0F83-731C-4489-9355-90BBF2B43BCF}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.88671875" customWidth="1"/>
     <col min="2" max="2" width="35.5546875" customWidth="1"/>
-    <col min="3" max="3" width="35.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="3" max="4" width="35.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8">
+    <row r="1" spans="1:5" ht="28.8">
       <c r="A1" s="4"/>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="26" t="s">
         <v>46</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>155</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3874,79 +3997,362 @@
         <v>4</v>
       </c>
       <c r="C2" s="4">
-        <v>4</v>
-      </c>
-      <c r="D2" s="35">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2" s="38">
         <v>44683</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="43.2">
+    <row r="3" spans="1:5" ht="43.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="35"/>
-    </row>
-    <row r="4" spans="1:4">
+        <v>157</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="38"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="39">
         <v>8</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="35">
+      <c r="C4" s="47"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="38">
         <v>44684</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="C5" s="47"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="38"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4">
         <v>4</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="38">
         <v>44685</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="43.2">
+    <row r="7" spans="1:5" ht="43.2">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="35"/>
+        <v>161</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="38"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="14">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="38">
+        <v>44686</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="57.6">
+      <c r="A9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="38"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="14">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4">
+        <v>4</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2</v>
+      </c>
+      <c r="E10" s="38">
+        <v>44687</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.8">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="38"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="14">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>4</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+      <c r="E12" s="38">
+        <v>44690</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="72">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" s="38"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+      <c r="E14" s="38">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43.2">
+      <c r="A15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" s="38"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="14">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4">
+        <v>4</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+      <c r="E16" s="38">
+        <v>44692</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="43.2">
+      <c r="A17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" s="38"/>
+    </row>
+    <row r="18" spans="1:5" ht="28.8">
+      <c r="A18" s="4"/>
+      <c r="B18" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="14">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>4</v>
+      </c>
+      <c r="E19" s="38">
+        <v>44693</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="57.6">
+      <c r="A20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" s="38"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="14">
+        <v>4</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>4</v>
+      </c>
+      <c r="E21" s="38">
+        <v>44694</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="43.2">
+      <c r="A22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="E22" s="38"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="14">
+        <v>4</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>4</v>
+      </c>
+      <c r="E23" s="38">
+        <v>44697</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="E24" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+  <mergeCells count="13">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3954,6 +4360,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010071FEBA6E59F1114FA1DBADB5A19192F5" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="68d738ba6abfae8d013aeb1fb6af46ea">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="33e4e33d-ffb4-4a17-9b1b-478bea8d3710" xmlns:ns4="9120eac6-4b18-4abe-a762-bd257214a810" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dae310c37f0a31cfa956236035f6b2a5" ns3:_="" ns4:_="">
     <xsd:import namespace="33e4e33d-ffb4-4a17-9b1b-478bea8d3710"/>
@@ -4162,36 +4583,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{248AF9C3-A2BF-4479-B7A8-B2BDE179A582}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81EA1DDF-0A41-4AEA-8848-5B89771E278B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="33e4e33d-ffb4-4a17-9b1b-478bea8d3710"/>
-    <ds:schemaRef ds:uri="9120eac6-4b18-4abe-a762-bd257214a810"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4214,9 +4609,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81EA1DDF-0A41-4AEA-8848-5B89771E278B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{248AF9C3-A2BF-4479-B7A8-B2BDE179A582}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="33e4e33d-ffb4-4a17-9b1b-478bea8d3710"/>
+    <ds:schemaRef ds:uri="9120eac6-4b18-4abe-a762-bd257214a810"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/rishabh_timesheet.xlsx
+++ b/rishabh_timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55683\OneDrive - ICF\Desktop\timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A396B223-4F67-47C8-AD3E-CC37CAF0FC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A25C70B-0B4D-4B60-91F1-43AD38CA4820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{91D1710D-DA54-4467-A82A-013A3D0A24E4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="192">
   <si>
     <t>CODE</t>
   </si>
@@ -730,6 +730,57 @@
   </si>
   <si>
     <t>PAYBACK PROJECT CODE</t>
+  </si>
+  <si>
+    <t>PAID TIME OFF (015002)</t>
+  </si>
+  <si>
+    <t>Working on given POC.</t>
+  </si>
+  <si>
+    <t>First Microservice completed with all services</t>
+  </si>
+  <si>
+    <t>Second Microservice completed with all services</t>
+  </si>
+  <si>
+    <t>Learn Microservices Architecture</t>
+  </si>
+  <si>
+    <t>Learn how to call using one microservices to other microservices</t>
+  </si>
+  <si>
+    <t>Learn API Gateway how to make and how it is working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learn How to use Eureka Server and why we need </t>
+  </si>
+  <si>
+    <t>Learn Hystrix API why we need this and what is the work of hystrix</t>
+  </si>
+  <si>
+    <t>Learn JDBC Template how it is working and where it is useful and why required.</t>
+  </si>
+  <si>
+    <t>Learning Spring JDBC for connecting MySQL to spring boot using JDBC driver.</t>
+  </si>
+  <si>
+    <t>Working on a third microservice and linking all microservices together.</t>
+  </si>
+  <si>
+    <t>Working on swagger implementation and mapping part of microservices.</t>
+  </si>
+  <si>
+    <t>Working on spring security authentication and authorization</t>
+  </si>
+  <si>
+    <t>Learning Spring Security</t>
+  </si>
+  <si>
+    <t>Learn Spring Security authorization and authentication using JPA</t>
+  </si>
+  <si>
+    <t>Working on spring-security authentication and authorization.</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1410,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3960,10 +4011,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9B0F83-731C-4489-9355-90BBF2B43BCF}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:E24"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4331,15 +4382,347 @@
       <c r="A24" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="16"/>
+      <c r="B24" s="16" t="s">
+        <v>179</v>
+      </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16" t="s">
         <v>173</v>
       </c>
       <c r="E24" s="38"/>
     </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="14">
+        <v>4</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>4</v>
+      </c>
+      <c r="E25" s="38">
+        <v>44698</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="28.8">
+      <c r="A26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="E26" s="38"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="14">
+        <v>2</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>6</v>
+      </c>
+      <c r="E27" s="38">
+        <v>44699</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="28.8">
+      <c r="A28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E28" s="38"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="14">
+        <v>2</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>6</v>
+      </c>
+      <c r="E29" s="38">
+        <v>44700</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="28.8">
+      <c r="A30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="E30" s="38"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="14">
+        <v>2</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4">
+        <v>6</v>
+      </c>
+      <c r="E31" s="38">
+        <v>44701</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="28.8">
+      <c r="A32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E32" s="38"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="14">
+        <v>2</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
+        <v>6</v>
+      </c>
+      <c r="E33" s="38">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="28.8">
+      <c r="A34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="E34" s="38"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="14">
+        <v>2</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4">
+        <v>6</v>
+      </c>
+      <c r="E35" s="38">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="28.8">
+      <c r="A36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="E36" s="38"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="14">
+        <v>4</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0</v>
+      </c>
+      <c r="D37" s="4">
+        <v>4</v>
+      </c>
+      <c r="E37" s="38">
+        <v>44706</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="E38" s="38"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="14">
+        <v>4</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0</v>
+      </c>
+      <c r="D39" s="4">
+        <v>4</v>
+      </c>
+      <c r="E39" s="38">
+        <v>44707</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" s="16"/>
+      <c r="D40" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="E40" s="38"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="14">
+        <v>4</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0</v>
+      </c>
+      <c r="D41" s="4">
+        <v>4</v>
+      </c>
+      <c r="E41" s="38">
+        <v>44708</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C42" s="16"/>
+      <c r="D42" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="E42" s="38"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="14">
+        <v>2</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0</v>
+      </c>
+      <c r="D43" s="4">
+        <v>6</v>
+      </c>
+      <c r="E43" s="38">
+        <v>44711</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="28.8">
+      <c r="A44" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="E44" s="38"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="14">
+        <v>2</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0</v>
+      </c>
+      <c r="D45" s="4">
+        <v>6</v>
+      </c>
+      <c r="E45" s="38">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="28.8">
+      <c r="A46" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="E46" s="38"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="24">
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="E2:E3"/>
@@ -4353,6 +4736,17 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/rishabh_timesheet.xlsx
+++ b/rishabh_timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55683\OneDrive - ICF\Desktop\timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A25C70B-0B4D-4B60-91F1-43AD38CA4820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A72B06-1F44-4161-B3AE-418C7D0E9EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{91D1710D-DA54-4467-A82A-013A3D0A24E4}"/>
+    <workbookView xWindow="2292" yWindow="936" windowWidth="16596" windowHeight="11400" xr2:uid="{91D1710D-DA54-4467-A82A-013A3D0A24E4}"/>
   </bookViews>
   <sheets>
     <sheet name="CODE" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="March" sheetId="4" r:id="rId4"/>
     <sheet name="April" sheetId="5" r:id="rId5"/>
     <sheet name="May" sheetId="6" r:id="rId6"/>
+    <sheet name="June" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="212">
   <si>
     <t>CODE</t>
   </si>
@@ -771,9 +772,6 @@
     <t>Working on swagger implementation and mapping part of microservices.</t>
   </si>
   <si>
-    <t>Working on spring security authentication and authorization</t>
-  </si>
-  <si>
     <t>Learning Spring Security</t>
   </si>
   <si>
@@ -781,6 +779,69 @@
   </si>
   <si>
     <t>Working on spring-security authentication and authorization.</t>
+  </si>
+  <si>
+    <t>Working on spring-security authentication and authorization</t>
+  </si>
+  <si>
+    <t>Learn Spring Security basic authentication</t>
+  </si>
+  <si>
+    <t>Working on spring-security basic authentication and authorization</t>
+  </si>
+  <si>
+    <t>Learning Spring Security OAuth2</t>
+  </si>
+  <si>
+    <t>Working on spring-security Oauth2 authentication</t>
+  </si>
+  <si>
+    <t>Learn Spring Security Oauth2</t>
+  </si>
+  <si>
+    <t>Learn Spring Security OAuth2</t>
+  </si>
+  <si>
+    <t>Working on spring-security cloud gateway</t>
+  </si>
+  <si>
+    <t>Learn Spring Security Cloud Gateway</t>
+  </si>
+  <si>
+    <t>Learn Spring Hystrix server and Zuul proxy server</t>
+  </si>
+  <si>
+    <t>Working Spring Hystrix server and Zuul proxy server</t>
+  </si>
+  <si>
+    <t>Working on CRISIL Task</t>
+  </si>
+  <si>
+    <t>Hands-on practice with Spring Cloud</t>
+  </si>
+  <si>
+    <t>Practice on Spring Native query</t>
+  </si>
+  <si>
+    <t>Learn Spring Resilience4j server and Zuul proxy</t>
+  </si>
+  <si>
+    <t>Working with Spring Resilience4j server and Zuul proxy</t>
+  </si>
+  <si>
+    <t>Learn Spring custom query and Native query and bean validation</t>
+  </si>
+  <si>
+    <t>Hands-on Practice with Spring custom query and Native query and bean validation</t>
+  </si>
+  <si>
+    <t>Learn Spring IOC and dependency injection and learn spring MVC traditional Spring</t>
+  </si>
+  <si>
+    <t>Working Spring IOC, Dependency injection, and spring MVC traditional Spring</t>
+  </si>
+  <si>
+    <t>still not get project charge code - 17-06-2022</t>
   </si>
 </sst>
 </file>
@@ -790,7 +851,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]dd\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -839,6 +900,13 @@
       <color rgb="FF00B0F0"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -950,7 +1018,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1057,13 +1125,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1075,14 +1143,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1090,9 +1158,13 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1409,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8568C51-A3B1-4ED9-851C-00FAAEFAC243}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1550,7 +1622,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1">
+    <row r="17" spans="1:4" ht="15" thickBot="1">
       <c r="A17" s="35" t="s">
         <v>136</v>
       </c>
@@ -1558,7 +1630,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1">
+    <row r="18" spans="1:4" ht="15" thickBot="1">
       <c r="A18" s="35" t="s">
         <v>138</v>
       </c>
@@ -1566,7 +1638,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1">
+    <row r="19" spans="1:4" ht="15" thickBot="1">
       <c r="A19" s="35" t="s">
         <v>140</v>
       </c>
@@ -1574,7 +1646,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1">
+    <row r="20" spans="1:4" ht="15" thickBot="1">
       <c r="A20" s="35" t="s">
         <v>142</v>
       </c>
@@ -1582,7 +1654,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1">
+    <row r="21" spans="1:4" ht="15" thickBot="1">
       <c r="A21" s="35" t="s">
         <v>144</v>
       </c>
@@ -1590,7 +1662,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1">
+    <row r="22" spans="1:4" ht="15" thickBot="1">
       <c r="A22" s="35" t="s">
         <v>146</v>
       </c>
@@ -1598,7 +1670,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" thickBot="1">
+    <row r="23" spans="1:4" ht="15" thickBot="1">
       <c r="A23" s="35" t="s">
         <v>148</v>
       </c>
@@ -1606,15 +1678,18 @@
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" thickBot="1">
+    <row r="24" spans="1:4" ht="15" thickBot="1">
       <c r="A24" s="35" t="s">
         <v>150</v>
       </c>
       <c r="B24" s="28" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="D24" s="49" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="19" t="s">
         <v>174</v>
       </c>
@@ -1670,7 +1745,7 @@
       <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="37">
         <v>44564</v>
       </c>
       <c r="E2"/>
@@ -1686,7 +1761,7 @@
       <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="37"/>
+      <c r="D3" s="38"/>
       <c r="E3"/>
       <c r="F3"/>
     </row>
@@ -1700,7 +1775,7 @@
       <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="37">
         <v>44565</v>
       </c>
       <c r="E4"/>
@@ -1716,7 +1791,7 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="37"/>
+      <c r="D5" s="38"/>
       <c r="E5"/>
       <c r="F5"/>
     </row>
@@ -1730,7 +1805,7 @@
       <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="37">
         <v>44566</v>
       </c>
       <c r="E6"/>
@@ -1746,7 +1821,7 @@
       <c r="C7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="37"/>
+      <c r="D7" s="38"/>
       <c r="E7"/>
       <c r="F7"/>
     </row>
@@ -1760,7 +1835,7 @@
       <c r="C8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="37">
         <v>44567</v>
       </c>
       <c r="E8" s="20"/>
@@ -1776,7 +1851,7 @@
       <c r="C9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="37"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
     </row>
@@ -1790,7 +1865,7 @@
       <c r="C10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="37">
         <v>44568</v>
       </c>
       <c r="E10" s="20"/>
@@ -1806,7 +1881,7 @@
       <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="37"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
     </row>
@@ -1836,7 +1911,7 @@
       <c r="C13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="37">
         <v>44572</v>
       </c>
       <c r="E13" s="20"/>
@@ -1852,7 +1927,7 @@
       <c r="C14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="36"/>
+      <c r="D14" s="37"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
     </row>
@@ -1866,7 +1941,7 @@
       <c r="C15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="37">
         <v>44573</v>
       </c>
       <c r="E15" s="20"/>
@@ -1882,7 +1957,7 @@
       <c r="C16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="36"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
     </row>
@@ -1912,7 +1987,7 @@
       <c r="C18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="37">
         <v>44578</v>
       </c>
       <c r="E18" s="20"/>
@@ -1928,7 +2003,7 @@
       <c r="C19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="36"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
     </row>
@@ -1958,7 +2033,7 @@
       <c r="C21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21" s="37">
         <v>44580</v>
       </c>
     </row>
@@ -1972,7 +2047,7 @@
       <c r="C22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="36"/>
+      <c r="D22" s="37"/>
     </row>
     <row r="23" spans="1:6" ht="57.6">
       <c r="A23" s="4" t="s">
@@ -1984,7 +2059,7 @@
       <c r="C23" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="36">
+      <c r="D23" s="37">
         <v>44581</v>
       </c>
     </row>
@@ -1998,7 +2073,7 @@
       <c r="C24" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="36"/>
+      <c r="D24" s="37"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="4" t="s">
@@ -2038,7 +2113,7 @@
       <c r="C27" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="36">
+      <c r="D27" s="37">
         <v>44586</v>
       </c>
     </row>
@@ -2052,7 +2127,7 @@
       <c r="C28" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="36"/>
+      <c r="D28" s="37"/>
     </row>
     <row r="29" spans="1:6" ht="129.6">
       <c r="A29" s="4" t="s">
@@ -2064,7 +2139,7 @@
       <c r="C29" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="36">
+      <c r="D29" s="37">
         <v>44588</v>
       </c>
     </row>
@@ -2078,7 +2153,7 @@
       <c r="C30" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="36"/>
+      <c r="D30" s="37"/>
     </row>
     <row r="31" spans="1:6" ht="86.4">
       <c r="A31" s="4" t="s">
@@ -2090,7 +2165,7 @@
       <c r="C31" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="36">
+      <c r="D31" s="37">
         <v>44589</v>
       </c>
     </row>
@@ -2104,7 +2179,7 @@
       <c r="C32" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="36"/>
+      <c r="D32" s="37"/>
     </row>
     <row r="33" spans="1:4" ht="72">
       <c r="A33" s="4" t="s">
@@ -2116,7 +2191,7 @@
       <c r="C33" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="36">
+      <c r="D33" s="37">
         <v>44592</v>
       </c>
     </row>
@@ -2130,16 +2205,10 @@
       <c r="C34" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="36"/>
+      <c r="D34" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="D13:D14"/>
@@ -2148,6 +2217,12 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2193,7 +2268,7 @@
       <c r="C2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="42">
         <v>44593</v>
       </c>
     </row>
@@ -2207,7 +2282,7 @@
       <c r="C3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="38"/>
+      <c r="D3" s="42"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
@@ -2219,7 +2294,7 @@
       <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="42">
         <v>44594</v>
       </c>
     </row>
@@ -2233,7 +2308,7 @@
       <c r="C5" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="38"/>
+      <c r="D5" s="42"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
@@ -2245,7 +2320,7 @@
       <c r="C6" s="4">
         <v>0</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="42">
         <v>44595</v>
       </c>
     </row>
@@ -2259,7 +2334,7 @@
       <c r="C7" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="38"/>
+      <c r="D7" s="42"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
@@ -2271,7 +2346,7 @@
       <c r="C8" s="4">
         <v>0</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="42">
         <v>44596</v>
       </c>
     </row>
@@ -2285,7 +2360,7 @@
       <c r="C9" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="38"/>
+      <c r="D9" s="42"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
@@ -2297,7 +2372,7 @@
       <c r="C10" s="4">
         <v>4</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="42">
         <v>44599</v>
       </c>
     </row>
@@ -2311,7 +2386,7 @@
       <c r="C11" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="38"/>
+      <c r="D11" s="42"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
@@ -2323,7 +2398,7 @@
       <c r="C12" s="4">
         <v>4</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="42">
         <v>44600</v>
       </c>
     </row>
@@ -2337,7 +2412,7 @@
       <c r="C13" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="38"/>
+      <c r="D13" s="42"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
@@ -2349,7 +2424,7 @@
       <c r="C14" s="4">
         <v>4</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="42">
         <v>44601</v>
       </c>
     </row>
@@ -2363,7 +2438,7 @@
       <c r="C15" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="38"/>
+      <c r="D15" s="42"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
@@ -2375,7 +2450,7 @@
       <c r="C16" s="4">
         <v>4</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="42">
         <v>44602</v>
       </c>
     </row>
@@ -2389,7 +2464,7 @@
       <c r="C17" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="38"/>
+      <c r="D17" s="42"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
@@ -2401,7 +2476,7 @@
       <c r="C18" s="4">
         <v>4</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="42">
         <v>44603</v>
       </c>
     </row>
@@ -2415,7 +2490,7 @@
       <c r="C19" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="38"/>
+      <c r="D19" s="42"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
@@ -2427,7 +2502,7 @@
       <c r="C20" s="4">
         <v>4</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="42">
         <v>44606</v>
       </c>
     </row>
@@ -2441,7 +2516,7 @@
       <c r="C21" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="38"/>
+      <c r="D21" s="42"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
@@ -2453,7 +2528,7 @@
       <c r="C22" s="4">
         <v>4</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="42">
         <v>44607</v>
       </c>
     </row>
@@ -2467,7 +2542,7 @@
       <c r="C23" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="38"/>
+      <c r="D23" s="42"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
@@ -2477,7 +2552,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="40"/>
-      <c r="D24" s="38">
+      <c r="D24" s="42">
         <v>44608</v>
       </c>
     </row>
@@ -2489,7 +2564,7 @@
         <v>56</v>
       </c>
       <c r="C25" s="41"/>
-      <c r="D25" s="38"/>
+      <c r="D25" s="42"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="4" t="s">
@@ -2501,7 +2576,7 @@
       <c r="C26" s="4">
         <v>4</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="42">
         <v>44609</v>
       </c>
     </row>
@@ -2515,7 +2590,7 @@
       <c r="C27" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="38"/>
+      <c r="D27" s="42"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
@@ -2527,7 +2602,7 @@
       <c r="C28" s="4">
         <v>4</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="42">
         <v>44610</v>
       </c>
     </row>
@@ -2541,7 +2616,7 @@
       <c r="C29" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="38"/>
+      <c r="D29" s="42"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
@@ -2553,7 +2628,7 @@
       <c r="C30" s="4">
         <v>4</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="42">
         <v>44613</v>
       </c>
     </row>
@@ -2567,7 +2642,7 @@
       <c r="C31" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="38"/>
+      <c r="D31" s="42"/>
     </row>
     <row r="32" spans="1:4" ht="28.8">
       <c r="A32" s="4"/>
@@ -2591,7 +2666,7 @@
       <c r="C33" s="4">
         <v>0</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D33" s="42">
         <v>44614</v>
       </c>
     </row>
@@ -2603,7 +2678,7 @@
         <v>62</v>
       </c>
       <c r="C34" s="16"/>
-      <c r="D34" s="38"/>
+      <c r="D34" s="42"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
@@ -2615,7 +2690,7 @@
       <c r="C35" s="4">
         <v>0</v>
       </c>
-      <c r="D35" s="38">
+      <c r="D35" s="42">
         <v>44615</v>
       </c>
     </row>
@@ -2627,7 +2702,7 @@
         <v>63</v>
       </c>
       <c r="C36" s="16"/>
-      <c r="D36" s="38"/>
+      <c r="D36" s="42"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
@@ -2639,7 +2714,7 @@
       <c r="C37" s="4">
         <v>0</v>
       </c>
-      <c r="D37" s="38">
+      <c r="D37" s="42">
         <v>44616</v>
       </c>
     </row>
@@ -2651,7 +2726,7 @@
         <v>65</v>
       </c>
       <c r="C38" s="16"/>
-      <c r="D38" s="38"/>
+      <c r="D38" s="42"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
@@ -2663,7 +2738,7 @@
       <c r="C39" s="4">
         <v>0</v>
       </c>
-      <c r="D39" s="38">
+      <c r="D39" s="42">
         <v>44617</v>
       </c>
     </row>
@@ -2675,7 +2750,7 @@
         <v>66</v>
       </c>
       <c r="C40" s="16"/>
-      <c r="D40" s="38"/>
+      <c r="D40" s="42"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
@@ -2687,7 +2762,7 @@
       <c r="C41" s="4">
         <v>0</v>
       </c>
-      <c r="D41" s="38">
+      <c r="D41" s="42">
         <v>44618</v>
       </c>
     </row>
@@ -2699,7 +2774,7 @@
         <v>66</v>
       </c>
       <c r="C42" s="16"/>
-      <c r="D42" s="38"/>
+      <c r="D42" s="42"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
@@ -2711,7 +2786,7 @@
       <c r="C43" s="4">
         <v>0</v>
       </c>
-      <c r="D43" s="38">
+      <c r="D43" s="42">
         <v>44619</v>
       </c>
     </row>
@@ -2723,7 +2798,7 @@
         <v>67</v>
       </c>
       <c r="C44" s="16"/>
-      <c r="D44" s="38"/>
+      <c r="D44" s="42"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="4" t="s">
@@ -2735,7 +2810,7 @@
       <c r="C45" s="4">
         <v>0</v>
       </c>
-      <c r="D45" s="38">
+      <c r="D45" s="42">
         <v>44620</v>
       </c>
     </row>
@@ -2747,22 +2822,10 @@
         <v>68</v>
       </c>
       <c r="C46" s="16"/>
-      <c r="D46" s="38"/>
+      <c r="D46" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
     <mergeCell ref="D39:D40"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="D43:D44"/>
@@ -2775,6 +2838,18 @@
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2813,11 +2888,11 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="43">
         <v>8</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="38">
+      <c r="C2" s="44"/>
+      <c r="D2" s="42">
         <v>44621</v>
       </c>
     </row>
@@ -2829,7 +2904,7 @@
         <v>64</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="38"/>
+      <c r="D3" s="42"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
@@ -2841,7 +2916,7 @@
       <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="42">
         <v>44622</v>
       </c>
     </row>
@@ -2853,7 +2928,7 @@
         <v>69</v>
       </c>
       <c r="C5" s="16"/>
-      <c r="D5" s="38"/>
+      <c r="D5" s="42"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
@@ -2865,7 +2940,7 @@
       <c r="C6" s="4">
         <v>0</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="42">
         <v>44623</v>
       </c>
     </row>
@@ -2877,7 +2952,7 @@
         <v>70</v>
       </c>
       <c r="C7" s="16"/>
-      <c r="D7" s="38"/>
+      <c r="D7" s="42"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
@@ -2889,7 +2964,7 @@
       <c r="C8" s="4">
         <v>0</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="42">
         <v>44624</v>
       </c>
     </row>
@@ -2901,7 +2976,7 @@
         <v>71</v>
       </c>
       <c r="C9" s="16"/>
-      <c r="D9" s="38"/>
+      <c r="D9" s="42"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
@@ -2913,7 +2988,7 @@
       <c r="C10" s="4">
         <v>0</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="42">
         <v>44627</v>
       </c>
     </row>
@@ -2925,7 +3000,7 @@
         <v>75</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="38"/>
+      <c r="D11" s="42"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
@@ -2937,7 +3012,7 @@
       <c r="C12" s="4">
         <v>0</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="42">
         <v>44628</v>
       </c>
     </row>
@@ -2949,7 +3024,7 @@
         <v>78</v>
       </c>
       <c r="C13" s="16"/>
-      <c r="D13" s="38"/>
+      <c r="D13" s="42"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
@@ -2961,7 +3036,7 @@
       <c r="C14" s="4">
         <v>0</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="42">
         <v>44629</v>
       </c>
     </row>
@@ -2973,7 +3048,7 @@
         <v>77</v>
       </c>
       <c r="C15" s="16"/>
-      <c r="D15" s="38"/>
+      <c r="D15" s="42"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
@@ -2985,7 +3060,7 @@
       <c r="C16" s="4">
         <v>0</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="42">
         <v>44630</v>
       </c>
     </row>
@@ -2997,7 +3072,7 @@
         <v>76</v>
       </c>
       <c r="C17" s="16"/>
-      <c r="D17" s="38"/>
+      <c r="D17" s="42"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
@@ -3009,7 +3084,7 @@
       <c r="C18" s="4">
         <v>4</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="42">
         <v>44631</v>
       </c>
     </row>
@@ -3023,7 +3098,7 @@
       <c r="C19" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="38"/>
+      <c r="D19" s="42"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
@@ -3035,7 +3110,7 @@
       <c r="C20" s="4">
         <v>0</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="42">
         <v>44634</v>
       </c>
     </row>
@@ -3047,7 +3122,7 @@
         <v>74</v>
       </c>
       <c r="C21" s="16"/>
-      <c r="D21" s="38"/>
+      <c r="D21" s="42"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
@@ -3059,7 +3134,7 @@
       <c r="C22" s="4">
         <v>0</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="42">
         <v>44635</v>
       </c>
     </row>
@@ -3071,7 +3146,7 @@
         <v>79</v>
       </c>
       <c r="C23" s="16"/>
-      <c r="D23" s="38"/>
+      <c r="D23" s="42"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
@@ -3083,7 +3158,7 @@
       <c r="C24" s="4">
         <v>0</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="42">
         <v>44636</v>
       </c>
     </row>
@@ -3095,7 +3170,7 @@
         <v>81</v>
       </c>
       <c r="C25" s="16"/>
-      <c r="D25" s="38"/>
+      <c r="D25" s="42"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="4" t="s">
@@ -3107,7 +3182,7 @@
       <c r="C26" s="4">
         <v>0</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="42">
         <v>44637</v>
       </c>
     </row>
@@ -3119,7 +3194,7 @@
         <v>82</v>
       </c>
       <c r="C27" s="16"/>
-      <c r="D27" s="38"/>
+      <c r="D27" s="42"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
@@ -3129,7 +3204,7 @@
         <v>8</v>
       </c>
       <c r="C28" s="40"/>
-      <c r="D28" s="38">
+      <c r="D28" s="42">
         <v>44638</v>
       </c>
     </row>
@@ -3141,7 +3216,7 @@
         <v>80</v>
       </c>
       <c r="C29" s="40"/>
-      <c r="D29" s="38"/>
+      <c r="D29" s="42"/>
     </row>
     <row r="30" spans="1:4" ht="28.8">
       <c r="A30" s="4"/>
@@ -3165,7 +3240,7 @@
       <c r="C31" s="4">
         <v>6</v>
       </c>
-      <c r="D31" s="38">
+      <c r="D31" s="42">
         <v>44641</v>
       </c>
     </row>
@@ -3179,7 +3254,7 @@
       <c r="C32" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="38"/>
+      <c r="D32" s="42"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
@@ -3191,7 +3266,7 @@
       <c r="C33" s="4">
         <v>6</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D33" s="42">
         <v>44642</v>
       </c>
     </row>
@@ -3205,7 +3280,7 @@
       <c r="C34" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="38"/>
+      <c r="D34" s="42"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
@@ -3217,7 +3292,7 @@
       <c r="C35" s="4">
         <v>6</v>
       </c>
-      <c r="D35" s="38">
+      <c r="D35" s="42">
         <v>44643</v>
       </c>
     </row>
@@ -3231,7 +3306,7 @@
       <c r="C36" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="38"/>
+      <c r="D36" s="42"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
@@ -3243,7 +3318,7 @@
       <c r="C37" s="4">
         <v>6</v>
       </c>
-      <c r="D37" s="38">
+      <c r="D37" s="42">
         <v>44644</v>
       </c>
     </row>
@@ -3257,7 +3332,7 @@
       <c r="C38" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D38" s="38"/>
+      <c r="D38" s="42"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
@@ -3267,7 +3342,7 @@
         <v>8</v>
       </c>
       <c r="C39" s="40"/>
-      <c r="D39" s="38">
+      <c r="D39" s="42">
         <v>44645</v>
       </c>
     </row>
@@ -3279,7 +3354,7 @@
         <v>85</v>
       </c>
       <c r="C40" s="40"/>
-      <c r="D40" s="38"/>
+      <c r="D40" s="42"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
@@ -3289,7 +3364,7 @@
         <v>8</v>
       </c>
       <c r="C41" s="40"/>
-      <c r="D41" s="38">
+      <c r="D41" s="42">
         <v>44648</v>
       </c>
     </row>
@@ -3301,7 +3376,7 @@
         <v>80</v>
       </c>
       <c r="C42" s="40"/>
-      <c r="D42" s="38"/>
+      <c r="D42" s="42"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
@@ -3313,7 +3388,7 @@
       <c r="C43" s="4">
         <v>4</v>
       </c>
-      <c r="D43" s="38">
+      <c r="D43" s="42">
         <v>44649</v>
       </c>
     </row>
@@ -3327,7 +3402,7 @@
       <c r="C44" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D44" s="38"/>
+      <c r="D44" s="42"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="4" t="s">
@@ -3337,7 +3412,7 @@
         <v>8</v>
       </c>
       <c r="C45" s="40"/>
-      <c r="D45" s="38">
+      <c r="D45" s="42">
         <v>44650</v>
       </c>
     </row>
@@ -3349,7 +3424,7 @@
         <v>85</v>
       </c>
       <c r="C46" s="40"/>
-      <c r="D46" s="38"/>
+      <c r="D46" s="42"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
@@ -3361,7 +3436,7 @@
       <c r="C47" s="4">
         <v>4</v>
       </c>
-      <c r="D47" s="38">
+      <c r="D47" s="42">
         <v>44651</v>
       </c>
     </row>
@@ -3375,15 +3450,29 @@
       <c r="C48" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D48" s="38"/>
+      <c r="D48" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="B42:C42"/>
@@ -3393,25 +3482,11 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:D40"/>
     <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D47:D48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3456,7 +3531,7 @@
       <c r="C2" s="4">
         <v>4</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="42">
         <v>44652</v>
       </c>
     </row>
@@ -3470,7 +3545,7 @@
       <c r="C3" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="38"/>
+      <c r="D3" s="42"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
@@ -3482,7 +3557,7 @@
       <c r="C4" s="4">
         <v>4</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="42">
         <v>44655</v>
       </c>
     </row>
@@ -3496,7 +3571,7 @@
       <c r="C5" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="38"/>
+      <c r="D5" s="42"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
@@ -3508,7 +3583,7 @@
       <c r="C6" s="4">
         <v>4</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="42">
         <v>44656</v>
       </c>
     </row>
@@ -3522,7 +3597,7 @@
       <c r="C7" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="38"/>
+      <c r="D7" s="42"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
@@ -3534,7 +3609,7 @@
       <c r="C8" s="4">
         <v>4</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="42">
         <v>44657</v>
       </c>
     </row>
@@ -3548,7 +3623,7 @@
       <c r="C9" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="38"/>
+      <c r="D9" s="42"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
@@ -3558,7 +3633,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="40"/>
-      <c r="D10" s="38">
+      <c r="D10" s="42">
         <v>44658</v>
       </c>
     </row>
@@ -3570,7 +3645,7 @@
         <v>80</v>
       </c>
       <c r="C11" s="40"/>
-      <c r="D11" s="38"/>
+      <c r="D11" s="42"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
@@ -3582,7 +3657,7 @@
       <c r="C12" s="4">
         <v>4</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="42">
         <v>44659</v>
       </c>
     </row>
@@ -3596,7 +3671,7 @@
       <c r="C13" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="38"/>
+      <c r="D13" s="42"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
@@ -3608,7 +3683,7 @@
       <c r="C14" s="4">
         <v>4</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="42">
         <v>44662</v>
       </c>
     </row>
@@ -3622,7 +3697,7 @@
       <c r="C15" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="38"/>
+      <c r="D15" s="42"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
@@ -3634,7 +3709,7 @@
       <c r="C16" s="4">
         <v>4</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="42">
         <v>44663</v>
       </c>
     </row>
@@ -3648,7 +3723,7 @@
       <c r="C17" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="38"/>
+      <c r="D17" s="42"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
@@ -3660,7 +3735,7 @@
       <c r="C18" s="4">
         <v>4</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="42">
         <v>44664</v>
       </c>
     </row>
@@ -3674,7 +3749,7 @@
       <c r="C19" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="38"/>
+      <c r="D19" s="42"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
@@ -3686,7 +3761,7 @@
       <c r="C20" s="4">
         <v>4</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="42">
         <v>44665</v>
       </c>
     </row>
@@ -3700,7 +3775,7 @@
       <c r="C21" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="38"/>
+      <c r="D21" s="42"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
@@ -3840,7 +3915,7 @@
       <c r="A33" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="47" t="s">
         <v>117</v>
       </c>
       <c r="C33" s="41"/>
@@ -3862,7 +3937,7 @@
       <c r="A35" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="47" t="s">
         <v>118</v>
       </c>
       <c r="C35" s="41"/>
@@ -3884,7 +3959,7 @@
       <c r="A37" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="47" t="s">
         <v>119</v>
       </c>
       <c r="C37" s="41"/>
@@ -3970,27 +4045,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D36:D37"/>
     <mergeCell ref="D38:D39"/>
@@ -4003,6 +4057,27 @@
     <mergeCell ref="D34:D35"/>
     <mergeCell ref="D32:D33"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="B31:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4013,8 +4088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9B0F83-731C-4489-9355-90BBF2B43BCF}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4053,7 +4128,7 @@
       <c r="D2" s="4">
         <v>4</v>
       </c>
-      <c r="E2" s="38">
+      <c r="E2" s="42">
         <v>44683</v>
       </c>
     </row>
@@ -4068,7 +4143,7 @@
       <c r="D3" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="E3" s="38"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
@@ -4077,9 +4152,9 @@
       <c r="B4" s="39">
         <v>8</v>
       </c>
-      <c r="C4" s="47"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="40"/>
-      <c r="E4" s="38">
+      <c r="E4" s="42">
         <v>44684</v>
       </c>
     </row>
@@ -4090,9 +4165,9 @@
       <c r="B5" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="47"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="40"/>
-      <c r="E5" s="38"/>
+      <c r="E5" s="42"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
@@ -4107,7 +4182,7 @@
       <c r="D6" s="4">
         <v>2</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="42">
         <v>44685</v>
       </c>
     </row>
@@ -4124,7 +4199,7 @@
       <c r="D7" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="E7" s="38"/>
+      <c r="E7" s="42"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
@@ -4139,7 +4214,7 @@
       <c r="D8" s="4">
         <v>2</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="42">
         <v>44686</v>
       </c>
     </row>
@@ -4156,7 +4231,7 @@
       <c r="D9" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="E9" s="38"/>
+      <c r="E9" s="42"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
@@ -4171,7 +4246,7 @@
       <c r="D10" s="4">
         <v>2</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="42">
         <v>44687</v>
       </c>
     </row>
@@ -4188,7 +4263,7 @@
       <c r="D11" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="38"/>
+      <c r="E11" s="42"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
@@ -4203,7 +4278,7 @@
       <c r="D12" s="4">
         <v>2</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="42">
         <v>44690</v>
       </c>
     </row>
@@ -4220,7 +4295,7 @@
       <c r="D13" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="E13" s="38"/>
+      <c r="E13" s="42"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
@@ -4235,7 +4310,7 @@
       <c r="D14" s="4">
         <v>2</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="42">
         <v>44691</v>
       </c>
     </row>
@@ -4252,7 +4327,7 @@
       <c r="D15" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="E15" s="38"/>
+      <c r="E15" s="42"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
@@ -4267,7 +4342,7 @@
       <c r="D16" s="4">
         <v>2</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="42">
         <v>44692</v>
       </c>
     </row>
@@ -4284,7 +4359,7 @@
       <c r="D17" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="E17" s="38"/>
+      <c r="E17" s="42"/>
     </row>
     <row r="18" spans="1:5" ht="28.8">
       <c r="A18" s="4"/>
@@ -4314,7 +4389,7 @@
       <c r="D19" s="4">
         <v>4</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="42">
         <v>44693</v>
       </c>
     </row>
@@ -4329,7 +4404,7 @@
       <c r="D20" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="E20" s="38"/>
+      <c r="E20" s="42"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
@@ -4344,7 +4419,7 @@
       <c r="D21" s="4">
         <v>4</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="42">
         <v>44694</v>
       </c>
     </row>
@@ -4359,7 +4434,7 @@
       <c r="D22" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="E22" s="38"/>
+      <c r="E22" s="42"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
@@ -4374,7 +4449,7 @@
       <c r="D23" s="4">
         <v>4</v>
       </c>
-      <c r="E23" s="38">
+      <c r="E23" s="42">
         <v>44697</v>
       </c>
     </row>
@@ -4389,7 +4464,7 @@
       <c r="D24" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="E24" s="38"/>
+      <c r="E24" s="42"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4" t="s">
@@ -4404,7 +4479,7 @@
       <c r="D25" s="4">
         <v>4</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E25" s="42">
         <v>44698</v>
       </c>
     </row>
@@ -4419,7 +4494,7 @@
       <c r="D26" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="E26" s="38"/>
+      <c r="E26" s="42"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="4" t="s">
@@ -4434,7 +4509,7 @@
       <c r="D27" s="4">
         <v>6</v>
       </c>
-      <c r="E27" s="38">
+      <c r="E27" s="42">
         <v>44699</v>
       </c>
     </row>
@@ -4449,7 +4524,7 @@
       <c r="D28" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="E28" s="38"/>
+      <c r="E28" s="42"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="4" t="s">
@@ -4464,7 +4539,7 @@
       <c r="D29" s="4">
         <v>6</v>
       </c>
-      <c r="E29" s="38">
+      <c r="E29" s="42">
         <v>44700</v>
       </c>
     </row>
@@ -4479,7 +4554,7 @@
       <c r="D30" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="E30" s="38"/>
+      <c r="E30" s="42"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="4" t="s">
@@ -4494,7 +4569,7 @@
       <c r="D31" s="4">
         <v>6</v>
       </c>
-      <c r="E31" s="38">
+      <c r="E31" s="42">
         <v>44701</v>
       </c>
     </row>
@@ -4509,7 +4584,7 @@
       <c r="D32" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="E32" s="38"/>
+      <c r="E32" s="42"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="4" t="s">
@@ -4524,7 +4599,7 @@
       <c r="D33" s="4">
         <v>6</v>
       </c>
-      <c r="E33" s="38">
+      <c r="E33" s="42">
         <v>44704</v>
       </c>
     </row>
@@ -4539,7 +4614,7 @@
       <c r="D34" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="E34" s="38"/>
+      <c r="E34" s="42"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="4" t="s">
@@ -4554,7 +4629,7 @@
       <c r="D35" s="4">
         <v>6</v>
       </c>
-      <c r="E35" s="38">
+      <c r="E35" s="42">
         <v>44705</v>
       </c>
     </row>
@@ -4569,7 +4644,7 @@
       <c r="D36" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="E36" s="38"/>
+      <c r="E36" s="42"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="4" t="s">
@@ -4584,7 +4659,7 @@
       <c r="D37" s="4">
         <v>4</v>
       </c>
-      <c r="E37" s="38">
+      <c r="E37" s="42">
         <v>44706</v>
       </c>
     </row>
@@ -4599,7 +4674,7 @@
       <c r="D38" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="E38" s="38"/>
+      <c r="E38" s="42"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="4" t="s">
@@ -4614,7 +4689,7 @@
       <c r="D39" s="4">
         <v>4</v>
       </c>
-      <c r="E39" s="38">
+      <c r="E39" s="42">
         <v>44707</v>
       </c>
     </row>
@@ -4629,7 +4704,7 @@
       <c r="D40" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="E40" s="38"/>
+      <c r="E40" s="42"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="4" t="s">
@@ -4644,7 +4719,7 @@
       <c r="D41" s="4">
         <v>4</v>
       </c>
-      <c r="E41" s="38">
+      <c r="E41" s="42">
         <v>44708</v>
       </c>
     </row>
@@ -4659,7 +4734,7 @@
       <c r="D42" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="E42" s="38"/>
+      <c r="E42" s="42"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="4" t="s">
@@ -4674,7 +4749,7 @@
       <c r="D43" s="4">
         <v>6</v>
       </c>
-      <c r="E43" s="38">
+      <c r="E43" s="42">
         <v>44711</v>
       </c>
     </row>
@@ -4683,13 +4758,13 @@
         <v>2</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="E44" s="38"/>
+        <v>190</v>
+      </c>
+      <c r="E44" s="42"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="4" t="s">
@@ -4704,7 +4779,7 @@
       <c r="D45" s="4">
         <v>6</v>
       </c>
-      <c r="E45" s="38">
+      <c r="E45" s="42">
         <v>44712</v>
       </c>
     </row>
@@ -4713,16 +4788,32 @@
         <v>2</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="E46" s="38"/>
+        <v>191</v>
+      </c>
+      <c r="E46" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="E2:E3"/>
@@ -4731,44 +4822,483 @@
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0F45B8-574A-4CBD-A70B-8ADD36051D77}">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" customWidth="1"/>
+    <col min="4" max="4" width="37.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="36" customHeight="1">
+      <c r="A1" s="4"/>
+      <c r="B1" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>6</v>
+      </c>
+      <c r="E2" s="42">
+        <v>44713</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.8">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" s="42"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>6</v>
+      </c>
+      <c r="E4" s="42">
+        <v>44714</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" s="42"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="14">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>6</v>
+      </c>
+      <c r="E6" s="42">
+        <v>44715</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="42"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="14">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>6</v>
+      </c>
+      <c r="E8" s="42">
+        <v>44718</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.8">
+      <c r="A9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" s="42"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="14">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>6</v>
+      </c>
+      <c r="E10" s="42">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E11" s="42"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="14">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>6</v>
+      </c>
+      <c r="E12" s="42">
+        <v>44720</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.8">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" s="42"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="14">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>4</v>
+      </c>
+      <c r="E14" s="42">
+        <v>44721</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="E15" s="42"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="14">
+        <v>6</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+      <c r="E16" s="42">
+        <v>44722</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="E17" s="42"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="14">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2</v>
+      </c>
+      <c r="E18" s="42">
+        <v>44725</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E19" s="42"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="14">
+        <v>6</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2</v>
+      </c>
+      <c r="E20" s="42">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E21" s="42"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="14">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>4</v>
+      </c>
+      <c r="E22" s="42">
+        <v>44727</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="28.8">
+      <c r="A23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="E23" s="42"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="14">
+        <v>4</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>4</v>
+      </c>
+      <c r="E24" s="42">
+        <v>44728</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28.8">
+      <c r="A25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25" s="42"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="14">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>4</v>
+      </c>
+      <c r="E26" s="42">
+        <v>44729</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="28.8">
+      <c r="A27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E27" s="42"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="14">
+        <v>4</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>4</v>
+      </c>
+      <c r="E28" s="42">
+        <v>44732</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010071FEBA6E59F1114FA1DBADB5A19192F5" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="68d738ba6abfae8d013aeb1fb6af46ea">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="33e4e33d-ffb4-4a17-9b1b-478bea8d3710" xmlns:ns4="9120eac6-4b18-4abe-a762-bd257214a810" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dae310c37f0a31cfa956236035f6b2a5" ns3:_="" ns4:_="">
     <xsd:import namespace="33e4e33d-ffb4-4a17-9b1b-478bea8d3710"/>
@@ -4977,10 +5507,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81EA1DDF-0A41-4AEA-8848-5B89771E278B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{248AF9C3-A2BF-4479-B7A8-B2BDE179A582}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="33e4e33d-ffb4-4a17-9b1b-478bea8d3710"/>
+    <ds:schemaRef ds:uri="9120eac6-4b18-4abe-a762-bd257214a810"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5003,20 +5559,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{248AF9C3-A2BF-4479-B7A8-B2BDE179A582}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81EA1DDF-0A41-4AEA-8848-5B89771E278B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="33e4e33d-ffb4-4a17-9b1b-478bea8d3710"/>
-    <ds:schemaRef ds:uri="9120eac6-4b18-4abe-a762-bd257214a810"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>